--- a/Formulas-Rotations.xlsx
+++ b/Formulas-Rotations.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Formules" sheetId="2" r:id="rId1"/>
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Blad2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>wielafstand cm</t>
   </si>
@@ -510,14 +511,29 @@
   <si>
     <t>AngleRotate</t>
   </si>
+  <si>
+    <t>End Odo</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>actualOdo</t>
+  </si>
+  <si>
+    <t>hasPassed</t>
+  </si>
+  <si>
+    <t>Calc to see if end state is reached</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -669,18 +685,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
@@ -692,6 +699,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -718,7 +734,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B4:R27" totalsRowShown="0">
   <autoFilter ref="B4:R27"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Richting"/>
+    <tableColumn id="1" name="Richting">
+      <calculatedColumnFormula>IF(ABS(D5)&lt;&gt;0,D5/ABS(D5),1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" name="Diameter cirkel"/>
     <tableColumn id="3" name="Hoek "/>
     <tableColumn id="4" name="WielDiameter"/>
@@ -1031,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,69 +1071,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="M2" s="8" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="M2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="2:18" ht="69.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1174,7 +1192,7 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f t="shared" ref="B5:B7" si="0">IF(ABS(D5)&lt;&gt;0,D5/ABS(D5),0)</f>
+        <f>IF(ABS(D5)&lt;&gt;0,D5/ABS(D5),1)</f>
         <v>1</v>
       </c>
       <c r="C5">
@@ -1187,7 +1205,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="5">
-        <f>E5*PI()</f>
+        <f t="shared" ref="F5:F11" si="0">E5*PI()</f>
         <v>78.539816339744831</v>
       </c>
       <c r="G5" s="5">
@@ -1213,7 +1231,7 @@
         <v>167.5</v>
       </c>
       <c r="M5" s="5">
-        <f>K5/L5*I5</f>
+        <f t="shared" ref="M5:M10" si="1">K5/L5*I5</f>
         <v>32.179104477611943</v>
       </c>
       <c r="N5" s="5">
@@ -1229,17 +1247,17 @@
         <v>219.91148575128551</v>
       </c>
       <c r="Q5" s="3">
-        <f>H5</f>
+        <f t="shared" ref="Q5:Q11" si="2">H5</f>
         <v>282.74333882308139</v>
       </c>
       <c r="R5" s="3">
-        <f>(O5+P5)/2</f>
+        <f t="shared" ref="R5:R11" si="3">(O5+P5)/2</f>
         <v>282.74333882308139</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B6:B27" si="4">IF(ABS(D6)&lt;&gt;0,D6/ABS(D6),1)</f>
         <v>1</v>
       </c>
       <c r="C6">
@@ -1252,14 +1270,14 @@
         <v>25</v>
       </c>
       <c r="F6" s="5">
-        <f>E6*PI()</f>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H10" si="1">(D6/360)*PI()*C6</f>
+        <f t="shared" ref="H6:H10" si="5">(D6/360)*PI()*C6</f>
         <v>267.03537555513242</v>
       </c>
       <c r="I6" s="5">
@@ -1270,15 +1288,15 @@
         <v>4.7123889803846897</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6:K10" si="2">D6+0.5*E6</f>
+        <f t="shared" ref="K6:K10" si="6">D6+0.5*E6</f>
         <v>192.5</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L10" si="3">D6-0.5*E6</f>
+        <f t="shared" ref="L6:L10" si="7">D6-0.5*E6</f>
         <v>167.5</v>
       </c>
       <c r="M6" s="5">
-        <f>K6/L6*I6</f>
+        <f t="shared" si="1"/>
         <v>11.492537313432836</v>
       </c>
       <c r="N6" s="5">
@@ -1286,25 +1304,25 @@
         <v>8.7012987012987004</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" ref="O6:O10" si="4">(D6/360)*PI()*(C6+G6*B6)</f>
+        <f t="shared" ref="O6:O10" si="8">(D6/360)*PI()*(C6+G6*B6)</f>
         <v>329.86722862692829</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" ref="P6:P10" si="5">(D6/360)*PI()*(C6-G6*B6)</f>
+        <f t="shared" ref="P6:P10" si="9">(D6/360)*PI()*(C6-G6*B6)</f>
         <v>204.20352248333654</v>
       </c>
       <c r="Q6" s="3">
-        <f>H6</f>
+        <f t="shared" si="2"/>
         <v>267.03537555513242</v>
       </c>
       <c r="R6" s="3">
-        <f>(O6+P6)/2</f>
+        <f t="shared" si="3"/>
         <v>267.03537555513242</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C7">
@@ -1317,14 +1335,14 @@
         <v>25</v>
       </c>
       <c r="F7" s="5">
-        <f>E7*PI()</f>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G7" s="5">
         <v>40</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>251.32741228718345</v>
       </c>
       <c r="I7" s="5">
@@ -1335,41 +1353,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K7" s="5">
+        <f t="shared" si="6"/>
+        <v>192.5</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="7"/>
+        <v>167.5</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>32.179104477611943</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ref="N7:N10" si="10">L7/K7*I7</f>
+        <v>24.363636363636363</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="8"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="9"/>
+        <v>188.49555921538757</v>
+      </c>
+      <c r="Q7" s="3">
         <f t="shared" si="2"/>
-        <v>192.5</v>
-      </c>
-      <c r="L7" s="5">
+        <v>251.32741228718345</v>
+      </c>
+      <c r="R7" s="3">
         <f t="shared" si="3"/>
-        <v>167.5</v>
-      </c>
-      <c r="M7" s="5">
-        <f>K7/L7*I7</f>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ref="N7:N10" si="6">L7/K7*I7</f>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="4"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="5"/>
-        <v>188.49555921538757</v>
-      </c>
-      <c r="Q7" s="3">
-        <f>H7</f>
-        <v>251.32741228718345</v>
-      </c>
-      <c r="R7" s="3">
-        <f>(O7+P7)/2</f>
         <v>251.32741228718345</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>IF(ABS(D8)&lt;&gt;0,D8/ABS(D8),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C8">
@@ -1382,14 +1400,14 @@
         <v>25</v>
       </c>
       <c r="F8" s="5">
-        <f>E8*PI()</f>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G8" s="5">
         <v>40</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>235.61944901923448</v>
       </c>
       <c r="I8" s="5">
@@ -1400,41 +1418,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K8" s="5">
+        <f t="shared" si="6"/>
+        <v>192.5</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="7"/>
+        <v>167.5</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>32.179104477611943</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="10"/>
+        <v>24.363636363636363</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="8"/>
+        <v>298.45130209103036</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="9"/>
+        <v>172.78759594743863</v>
+      </c>
+      <c r="Q8" s="3">
         <f t="shared" si="2"/>
-        <v>192.5</v>
-      </c>
-      <c r="L8" s="5">
+        <v>235.61944901923448</v>
+      </c>
+      <c r="R8" s="3">
         <f t="shared" si="3"/>
-        <v>167.5</v>
-      </c>
-      <c r="M8" s="5">
-        <f>K8/L8*I8</f>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="6"/>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="4"/>
-        <v>298.45130209103036</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" si="5"/>
-        <v>172.78759594743863</v>
-      </c>
-      <c r="Q8" s="3">
-        <f>H8</f>
-        <v>235.61944901923448</v>
-      </c>
-      <c r="R8" s="3">
-        <f>(O8+P8)/2</f>
         <v>235.61944901923448</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" ref="B9:B11" si="7">IF(ABS(D9)&lt;&gt;0,D9/ABS(D9),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C9">
@@ -1447,14 +1465,14 @@
         <v>25</v>
       </c>
       <c r="F9" s="5">
-        <f>E9*PI()</f>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G9" s="5">
         <v>40</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>219.91148575128551</v>
       </c>
       <c r="I9" s="5">
@@ -1465,41 +1483,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K9" s="5">
+        <f t="shared" si="6"/>
+        <v>192.5</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="7"/>
+        <v>167.5</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>32.179104477611943</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="10"/>
+        <v>24.363636363636363</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="8"/>
+        <v>282.74333882308139</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="9"/>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="Q9" s="3">
         <f t="shared" si="2"/>
-        <v>192.5</v>
-      </c>
-      <c r="L9" s="5">
+        <v>219.91148575128551</v>
+      </c>
+      <c r="R9" s="3">
         <f t="shared" si="3"/>
-        <v>167.5</v>
-      </c>
-      <c r="M9" s="5">
-        <f>K9/L9*I9</f>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="6"/>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="4"/>
-        <v>282.74333882308139</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="5"/>
-        <v>157.07963267948966</v>
-      </c>
-      <c r="Q9" s="3">
-        <f>H9</f>
-        <v>219.91148575128551</v>
-      </c>
-      <c r="R9" s="3">
-        <f>(O9+P9)/2</f>
         <v>219.91148575128551</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C10">
@@ -1512,14 +1530,14 @@
         <v>25</v>
       </c>
       <c r="F10" s="5">
-        <f>E10*PI()</f>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G10" s="5">
         <v>40</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>204.20352248333654</v>
       </c>
       <c r="I10" s="5">
@@ -1530,41 +1548,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K10" s="5">
+        <f t="shared" si="6"/>
+        <v>192.5</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="7"/>
+        <v>167.5</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>32.179104477611943</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="10"/>
+        <v>24.363636363636363</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="8"/>
+        <v>267.03537555513242</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="9"/>
+        <v>141.37166941154069</v>
+      </c>
+      <c r="Q10" s="3">
         <f t="shared" si="2"/>
-        <v>192.5</v>
-      </c>
-      <c r="L10" s="5">
+        <v>204.20352248333654</v>
+      </c>
+      <c r="R10" s="3">
         <f t="shared" si="3"/>
-        <v>167.5</v>
-      </c>
-      <c r="M10" s="5">
-        <f>K10/L10*I10</f>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="6"/>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="4"/>
-        <v>267.03537555513242</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="5"/>
-        <v>141.37166941154069</v>
-      </c>
-      <c r="Q10" s="3">
-        <f>H10</f>
-        <v>204.20352248333654</v>
-      </c>
-      <c r="R10" s="3">
-        <f>(O10+P10)/2</f>
         <v>204.20352248333654</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C11">
@@ -1577,14 +1595,14 @@
         <v>25</v>
       </c>
       <c r="F11" s="5">
-        <f>E11*PI()</f>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G11" s="5">
         <v>40</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11" si="8">(D11/360)*PI()*C11</f>
+        <f t="shared" ref="H11" si="11">(D11/360)*PI()*C11</f>
         <v>188.49555921538757</v>
       </c>
       <c r="I11" s="5">
@@ -1595,41 +1613,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ref="K11" si="9">D11+0.5*E11</f>
+        <f t="shared" ref="K11" si="12">D11+0.5*E11</f>
         <v>192.5</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11" si="10">D11-0.5*E11</f>
+        <f t="shared" ref="L11" si="13">D11-0.5*E11</f>
         <v>167.5</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11" si="11">K11/L11*I11</f>
+        <f t="shared" ref="M11" si="14">K11/L11*I11</f>
         <v>32.179104477611943</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" ref="N11" si="12">L11/K11*I11</f>
+        <f t="shared" ref="N11" si="15">L11/K11*I11</f>
         <v>24.363636363636363</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11" si="13">(D11/360)*PI()*(C11+G11*B11)</f>
+        <f t="shared" ref="O11" si="16">(D11/360)*PI()*(C11+G11*B11)</f>
         <v>251.32741228718345</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11" si="14">(D11/360)*PI()*(C11-G11*B11)</f>
+        <f t="shared" ref="P11" si="17">(D11/360)*PI()*(C11-G11*B11)</f>
         <v>125.66370614359172</v>
       </c>
       <c r="Q11" s="3">
-        <f>H11</f>
+        <f t="shared" si="2"/>
         <v>188.49555921538757</v>
       </c>
       <c r="R11" s="3">
-        <f>(O11+P11)/2</f>
+        <f t="shared" si="3"/>
         <v>188.49555921538757</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" ref="B12:B27" si="15">IF(ABS(D12)&lt;&gt;0,D12/ABS(D12),0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C12">
@@ -1642,14 +1660,14 @@
         <v>25</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F27" si="16">E12*PI()</f>
+        <f t="shared" ref="F12:F27" si="18">E12*PI()</f>
         <v>78.539816339744831</v>
       </c>
       <c r="G12" s="5">
         <v>40</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ref="H12:H27" si="17">(D12/360)*PI()*C12</f>
+        <f t="shared" ref="H12:H27" si="19">(D12/360)*PI()*C12</f>
         <v>172.78759594743863</v>
       </c>
       <c r="I12" s="5">
@@ -1660,41 +1678,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:K27" si="18">D12+0.5*E12</f>
+        <f t="shared" ref="K12:K27" si="20">D12+0.5*E12</f>
         <v>192.5</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12:L27" si="19">D12-0.5*E12</f>
+        <f t="shared" ref="L12:L27" si="21">D12-0.5*E12</f>
         <v>167.5</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" ref="M12:M27" si="20">K12/L12*I12</f>
+        <f t="shared" ref="M12:M27" si="22">K12/L12*I12</f>
         <v>32.179104477611943</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" ref="N12:N27" si="21">L12/K12*I12</f>
+        <f t="shared" ref="N12:N27" si="23">L12/K12*I12</f>
         <v>24.363636363636363</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:O27" si="22">(D12/360)*PI()*(C12+G12*B12)</f>
+        <f t="shared" ref="O12:O27" si="24">(D12/360)*PI()*(C12+G12*B12)</f>
         <v>235.61944901923448</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" ref="P12:P27" si="23">(D12/360)*PI()*(C12-G12*B12)</f>
+        <f t="shared" ref="P12:P27" si="25">(D12/360)*PI()*(C12-G12*B12)</f>
         <v>109.95574287564276</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" ref="Q12:Q27" si="24">H12</f>
+        <f t="shared" ref="Q12:Q27" si="26">H12</f>
         <v>172.78759594743863</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" ref="R12:R27" si="25">(O12+P12)/2</f>
+        <f t="shared" ref="R12:R27" si="27">(O12+P12)/2</f>
         <v>172.7875959474386</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C13">
@@ -1707,14 +1725,14 @@
         <v>25</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G13" s="5">
         <v>40</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>157.07963267948966</v>
       </c>
       <c r="I13" s="5">
@@ -1725,41 +1743,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>219.91148575128551</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>94.247779607693786</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>157.07963267948966</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>157.07963267948963</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C14">
@@ -1772,14 +1790,14 @@
         <v>25</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G14" s="5">
         <v>40</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>141.37166941154069</v>
       </c>
       <c r="I14" s="5">
@@ -1790,41 +1808,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>204.20352248333654</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>78.539816339744831</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>141.37166941154069</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>141.37166941154069</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C15">
@@ -1837,14 +1855,14 @@
         <v>25</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G15" s="5">
         <v>40</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>125.66370614359172</v>
       </c>
       <c r="I15" s="5">
@@ -1855,41 +1873,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>188.49555921538757</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>62.831853071795862</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>125.66370614359172</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>125.66370614359172</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C16">
@@ -1902,14 +1920,14 @@
         <v>25</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G16" s="5">
         <v>40</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>109.95574287564276</v>
       </c>
       <c r="I16" s="5">
@@ -1920,41 +1938,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>172.78759594743863</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>47.123889803846893</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>109.95574287564276</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>109.95574287564276</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C17">
@@ -1967,14 +1985,14 @@
         <v>25</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G17" s="5">
         <v>40</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>94.247779607693786</v>
       </c>
       <c r="I17" s="5">
@@ -1985,41 +2003,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>157.07963267948966</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>31.415926535897931</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>94.247779607693786</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>94.247779607693801</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C18">
@@ -2032,14 +2050,14 @@
         <v>25</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G18" s="5">
         <v>40</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>78.539816339744831</v>
       </c>
       <c r="I18" s="5">
@@ -2050,41 +2068,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>141.37166941154069</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15.707963267948966</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>78.539816339744831</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>78.539816339744831</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C19">
@@ -2097,14 +2115,14 @@
         <v>25</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G19" s="5">
         <v>40</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>62.831853071795862</v>
       </c>
       <c r="I19" s="5">
@@ -2115,41 +2133,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>125.66370614359172</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>62.831853071795862</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>62.831853071795862</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C20">
@@ -2162,14 +2180,14 @@
         <v>25</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G20" s="5">
         <v>40</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>47.123889803846893</v>
       </c>
       <c r="I20" s="5">
@@ -2180,41 +2198,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>109.95574287564276</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-15.707963267948966</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>47.123889803846893</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>47.123889803846893</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C21">
@@ -2227,14 +2245,14 @@
         <v>25</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G21" s="5">
         <v>40</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>31.415926535897931</v>
       </c>
       <c r="I21" s="5">
@@ -2245,41 +2263,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>94.247779607693786</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-31.415926535897931</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>31.415926535897931</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>31.415926535897928</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C22">
@@ -2292,14 +2310,14 @@
         <v>25</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G22" s="5">
         <v>40</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>15.707963267948966</v>
       </c>
       <c r="I22" s="5">
@@ -2310,61 +2328,61 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>78.539816339744831</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-47.123889803846893</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>15.707963267948966</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>15.707963267948969</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>25</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G23" s="5">
         <v>40</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I23" s="5">
@@ -2375,62 +2393,62 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="18"/>
-        <v>192.5</v>
+        <f t="shared" si="20"/>
+        <v>102.5</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="19"/>
-        <v>167.5</v>
+        <f t="shared" si="21"/>
+        <v>77.5</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="20"/>
-        <v>32.179104477611943</v>
+        <f>K23/L23*I23</f>
+        <v>37.032258064516128</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="21"/>
-        <v>24.363636363636363</v>
+        <f t="shared" si="23"/>
+        <v>21.170731707317074</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="22"/>
-        <v>62.831853071795862</v>
+        <f t="shared" si="24"/>
+        <v>31.415926535897931</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="23"/>
-        <v>-62.831853071795862</v>
+        <f t="shared" si="25"/>
+        <v>-31.415926535897931</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="C24">
         <v>-10</v>
       </c>
       <c r="D24">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="E24">
         <v>25</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G24" s="5">
         <v>40</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="17"/>
-        <v>-15.707963267948966</v>
+        <f t="shared" si="19"/>
+        <v>15.707963267948966</v>
       </c>
       <c r="I24" s="5">
         <v>28</v>
@@ -2440,41 +2458,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="18"/>
-        <v>192.5</v>
+        <f t="shared" si="20"/>
+        <v>-167.5</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="19"/>
-        <v>167.5</v>
+        <f t="shared" si="21"/>
+        <v>-192.5</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="20"/>
+        <f>K24/L24*I24</f>
+        <v>24.363636363636363</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="23"/>
         <v>32.179104477611943</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="21"/>
-        <v>24.363636363636363</v>
-      </c>
       <c r="O24" s="5">
-        <f t="shared" si="22"/>
-        <v>47.123889803846893</v>
+        <f t="shared" si="24"/>
+        <v>78.539816339744831</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="23"/>
-        <v>-78.539816339744831</v>
+        <f t="shared" si="25"/>
+        <v>-47.123889803846893</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="24"/>
-        <v>-15.707963267948966</v>
+        <f t="shared" si="26"/>
+        <v>15.707963267948966</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="25"/>
-        <v>-15.707963267948969</v>
+        <f t="shared" si="27"/>
+        <v>15.707963267948969</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C25">
@@ -2487,14 +2505,14 @@
         <v>25</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G25" s="5">
         <v>40</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-31.415926535897931</v>
       </c>
       <c r="I25" s="5">
@@ -2505,41 +2523,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>31.415926535897931</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-94.247779607693786</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-31.415926535897931</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-31.415926535897928</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C26">
@@ -2552,14 +2570,14 @@
         <v>25</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G26" s="5">
         <v>40</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-47.123889803846893</v>
       </c>
       <c r="I26" s="5">
@@ -2570,41 +2588,41 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>15.707963267948966</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-109.95574287564276</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-47.123889803846893</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-47.123889803846893</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C27">
@@ -2617,14 +2635,14 @@
         <v>25</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G27" s="5">
         <v>40</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-62.831853071795862</v>
       </c>
       <c r="I27" s="5">
@@ -2635,35 +2653,35 @@
         <v>13.194689145077133</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>192.5</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>167.5</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32.179104477611943</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.363636363636363</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-125.66370614359172</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-62.831853071795862</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-62.831853071795862</v>
       </c>
     </row>
@@ -3155,16 +3173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3179,10 +3197,10 @@
       <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H2" t="s">
@@ -3563,4 +3581,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>3000</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">D3/ABS(D3)*(E3-C3)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>2500</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3500</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4000</v>
+      </c>
+      <c r="D8">
+        <v>-20</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <f>D8/ABS(D8)*(E8-C8)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3500</v>
+      </c>
+      <c r="D9">
+        <v>-20</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F11" si="1">D9/ABS(D9)*(E9-C9)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3000</v>
+      </c>
+      <c r="D10">
+        <v>-20</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2500</v>
+      </c>
+      <c r="D11">
+        <v>-20</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Formulas-Rotations.xlsx
+++ b/Formulas-Rotations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Formules" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>wielafstand cm</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Vlr (Ø+0.5*dw)</t>
   </si>
   <si>
-    <t>Vrr (Ø-0.5*dw)</t>
-  </si>
-  <si>
     <t>Richting</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>INPUTS</t>
-  </si>
-  <si>
-    <t>verhouding2</t>
   </si>
   <si>
     <t>Vmax voertuig</t>
@@ -525,6 +519,72 @@
   </si>
   <si>
     <t>Calc to see if end state is reached</t>
+  </si>
+  <si>
+    <t>tick/rev</t>
+  </si>
+  <si>
+    <t>ticks per cm</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>setRPM</t>
+  </si>
+  <si>
+    <t>minRPM</t>
+  </si>
+  <si>
+    <t>maxRPM</t>
+  </si>
+  <si>
+    <t>minPWM</t>
+  </si>
+  <si>
+    <t>lrpm</t>
+  </si>
+  <si>
+    <t>rrpm</t>
+  </si>
+  <si>
+    <t>verh</t>
+  </si>
+  <si>
+    <t>lrpmc</t>
+  </si>
+  <si>
+    <t>maxrpm</t>
+  </si>
+  <si>
+    <t>odostartbrakeleft = ticksperrev/2</t>
+  </si>
+  <si>
+    <t>is half wiel</t>
+  </si>
+  <si>
+    <t>tijd links</t>
+  </si>
+  <si>
+    <t>tijd rechts</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>ratiol</t>
+  </si>
+  <si>
+    <t>ratior</t>
+  </si>
+  <si>
+    <t>omwL</t>
+  </si>
+  <si>
+    <t>omwR</t>
   </si>
 </sst>
 </file>
@@ -681,7 +741,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,6 +763,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,7 +779,49 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Uitvoer" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -731,9 +836,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B4:R27" totalsRowShown="0">
-  <autoFilter ref="B4:R27"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B4:U28" totalsRowCount="1">
+  <autoFilter ref="B4:U28"/>
+  <tableColumns count="20">
     <tableColumn id="1" name="Richting">
       <calculatedColumnFormula>IF(ABS(D5)&lt;&gt;0,D5/ABS(D5),1)</calculatedColumnFormula>
     </tableColumn>
@@ -744,16 +849,39 @@
     <tableColumn id="6" name="Wielbasis"/>
     <tableColumn id="7" name="af te leggen afstand"/>
     <tableColumn id="8" name="snelheid (rpm) V"/>
-    <tableColumn id="20" name="snelheid (KM/H)" dataDxfId="0">
+    <tableColumn id="20" name="snelheid (KM/H)" dataDxfId="14" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="verhouding"/>
-    <tableColumn id="10" name="verhouding2"/>
-    <tableColumn id="12" name="Vl"/>
-    <tableColumn id="13" name="Vr"/>
-    <tableColumn id="15" name="Dl"/>
-    <tableColumn id="16" name="Dr"/>
-    <tableColumn id="18" name="Dc"/>
+    <tableColumn id="9" name="verhouding">
+      <calculatedColumnFormula>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Vl">
+      <calculatedColumnFormula>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="Vr" dataDxfId="7">
+      <calculatedColumnFormula>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Dl" dataDxfId="9" totalsRowDxfId="5">
+      <calculatedColumnFormula>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5+G5/2*Tabel1[[#This Row],[Richting]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Dr" dataDxfId="8" totalsRowDxfId="4">
+      <calculatedColumnFormula>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5-G5/2*Tabel1[[#This Row],[Richting]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="omwL" dataDxfId="13" totalsRowDxfId="3">
+      <calculatedColumnFormula>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="omwR" dataDxfId="12" totalsRowDxfId="2">
+      <calculatedColumnFormula>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="tijd links" dataDxfId="10" totalsRowDxfId="1">
+      <calculatedColumnFormula>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="tijd rechts" dataDxfId="11" totalsRowDxfId="0">
+      <calculatedColumnFormula>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Dc">
+      <calculatedColumnFormula>H5</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="19" name="Dcontrole"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1047,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R27"/>
+  <dimension ref="B2:U50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,32 +1190,37 @@
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+    <row r="2" spans="2:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="M2" s="10" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="L2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="2:18" ht="69.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="2:21" ht="69.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>60</v>
       </c>
@@ -1104,42 +1237,43 @@
         <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1154,7 +1288,7 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
@@ -1163,1275 +1297,1512 @@
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="Q4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>IF(ABS(D5)&lt;&gt;0,D5/ABS(D5),1)</f>
         <v>1</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E5">
         <v>25</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F11" si="0">E5*PI()</f>
-        <v>78.539816339744831</v>
+        <f>Tabel1[[#This Row],[af te leggen afstand]]/10</f>
+        <v>31.415926535897931</v>
       </c>
       <c r="G5" s="5">
         <v>40</v>
       </c>
       <c r="H5" s="5">
         <f>(D5/360)*PI()*C5</f>
-        <v>282.74333882308139</v>
+        <v>314.15926535897933</v>
       </c>
       <c r="I5" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J5" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>1.8849555921538759</v>
       </c>
       <c r="K5" s="5">
-        <f>D5+0.5*E5</f>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.4999999999999998</v>
       </c>
       <c r="L5" s="5">
-        <f>D5-0.5*E5</f>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>12.5</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" ref="M5:M10" si="1">K5/L5*I5</f>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="N5" s="5">
-        <f>L5/K5*I5</f>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5+G5/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>376.99111843077515</v>
       </c>
       <c r="O5" s="5">
-        <f>(D5/360)*PI()*(C5+G5*B5)</f>
-        <v>345.57519189487726</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5-G5/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>251.32741228718345</v>
       </c>
       <c r="P5" s="5">
-        <f>(D5/360)*PI()*(C5-G5*B5)</f>
-        <v>219.91148575128551</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" ref="Q5:Q11" si="2">H5</f>
-        <v>282.74333882308139</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" ref="R5:R11" si="3">(O5+P5)/2</f>
-        <v>282.74333882308139</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>8</v>
+      </c>
+      <c r="R5" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.95999999999999985</v>
+      </c>
+      <c r="S5" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.96</v>
+      </c>
+      <c r="T5" s="3">
+        <f>H5</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5:U11" si="0">(N5+O5)/2</f>
+        <v>314.15926535897927</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" ref="B6:B27" si="4">IF(ABS(D6)&lt;&gt;0,D6/ABS(D6),1)</f>
+        <f t="shared" ref="B6:B27" si="1">IF(ABS(D6)&lt;&gt;0,D6/ABS(D6),1)</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F6:F11" si="2">E6*PI()</f>
         <v>78.539816339744831</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H10" si="5">(D6/360)*PI()*C6</f>
-        <v>267.03537555513242</v>
+        <f t="shared" ref="H6:H10" si="3">(D6/360)*PI()*C6</f>
+        <v>279.25268031909269</v>
       </c>
       <c r="I6" s="5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J6" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>4.7123889803846897</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6:K10" si="6">D6+0.5*E6</f>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.5</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L10" si="7">D6-0.5*E6</f>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.25</v>
       </c>
       <c r="M6" s="5">
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="N6" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D6/360)*PI()*(C6+G6/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>335.10321638291128</v>
+      </c>
+      <c r="O6" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D6/360)*PI()*(C6-G6/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>223.40214425527418</v>
+      </c>
+      <c r="P6" s="5">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.8444444444444446</v>
+      </c>
+      <c r="R6" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.13653333333333334</v>
+      </c>
+      <c r="S6" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.13653333333333334</v>
+      </c>
+      <c r="T6" s="3">
+        <f>H6</f>
+        <v>279.25268031909269</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="0"/>
+        <v>279.25268031909275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7">
         <f t="shared" si="1"/>
-        <v>11.492537313432836</v>
-      </c>
-      <c r="N6" s="5">
-        <f>L6/K6*I6</f>
-        <v>8.7012987012987004</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" ref="O6:O10" si="8">(D6/360)*PI()*(C6+G6*B6)</f>
-        <v>329.86722862692829</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" ref="P6:P10" si="9">(D6/360)*PI()*(C6-G6*B6)</f>
-        <v>204.20352248333654</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>280</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>267.03537555513242</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="3"/>
-        <v>267.03537555513242</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>160</v>
-      </c>
-      <c r="D7">
-        <v>180</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G7" s="5">
         <v>40</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="5"/>
-        <v>251.32741228718345</v>
+        <f t="shared" si="3"/>
+        <v>244.34609527920611</v>
       </c>
       <c r="I7" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="6"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.5</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="7"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.25</v>
       </c>
       <c r="M7" s="5">
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="N7" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D7/360)*PI()*(C7+G7/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>293.21531433504737</v>
+      </c>
+      <c r="O7" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D7/360)*PI()*(C7-G7/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>195.47687622336491</v>
+      </c>
+      <c r="P7" s="5">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.4888888888888889</v>
+      </c>
+      <c r="R7" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.11946666666666667</v>
+      </c>
+      <c r="S7" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.11946666666666668</v>
+      </c>
+      <c r="T7" s="3">
+        <f>H7</f>
+        <v>244.34609527920611</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="0"/>
+        <v>244.34609527920614</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8">
         <f t="shared" si="1"/>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ref="N7:N10" si="10">L7/K7*I7</f>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="8"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="9"/>
-        <v>188.49555921538757</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>240</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>251.32741228718345</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="3"/>
-        <v>251.32741228718345</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>150</v>
-      </c>
-      <c r="D8">
-        <v>180</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G8" s="5">
         <v>40</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="5"/>
-        <v>235.61944901923448</v>
+        <f t="shared" si="3"/>
+        <v>209.43951023931953</v>
       </c>
       <c r="I8" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J8" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="6"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.5</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="7"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.25</v>
       </c>
       <c r="M8" s="5">
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="N8" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D8/360)*PI()*(C8+G8/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>251.32741228718342</v>
+      </c>
+      <c r="O8" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D8/360)*PI()*(C8-G8/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>167.55160819145561</v>
+      </c>
+      <c r="P8" s="5">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.1333333333333329</v>
+      </c>
+      <c r="R8" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.10239999999999998</v>
+      </c>
+      <c r="S8" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.10239999999999998</v>
+      </c>
+      <c r="T8" s="3">
+        <f>H8</f>
+        <v>209.43951023931953</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="0"/>
+        <v>209.43951023931953</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9">
         <f t="shared" si="1"/>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="10"/>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="8"/>
-        <v>298.45130209103036</v>
-      </c>
-      <c r="P8" s="5">
-        <f t="shared" si="9"/>
-        <v>172.78759594743863</v>
-      </c>
-      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>235.61944901923448</v>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="3"/>
-        <v>235.61944901923448</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>140</v>
-      </c>
-      <c r="D9">
-        <v>180</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G9" s="5">
         <v>40</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="5"/>
-        <v>219.91148575128551</v>
+        <f t="shared" si="3"/>
+        <v>174.53292519943295</v>
       </c>
       <c r="I9" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="6"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.4999999999999998</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="7"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.249999999999996</v>
       </c>
       <c r="M9" s="5">
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="N9" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D9/360)*PI()*(C9+G9/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>209.43951023931953</v>
+      </c>
+      <c r="O9" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D9/360)*PI()*(C9-G9/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>139.62634015954637</v>
+      </c>
+      <c r="P9" s="5">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="R9" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>8.5333333333333344E-2</v>
+      </c>
+      <c r="S9" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>8.533333333333333E-2</v>
+      </c>
+      <c r="T9" s="3">
+        <f>H9</f>
+        <v>174.53292519943295</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="0"/>
+        <v>174.53292519943295</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10">
         <f t="shared" si="1"/>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="10"/>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="8"/>
-        <v>282.74333882308139</v>
-      </c>
-      <c r="P9" s="5">
-        <f t="shared" si="9"/>
-        <v>157.07963267948966</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>160</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>219.91148575128551</v>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" si="3"/>
-        <v>219.91148575128551</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>130</v>
-      </c>
-      <c r="D10">
-        <v>180</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G10" s="5">
         <v>40</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="5"/>
-        <v>204.20352248333654</v>
+        <f t="shared" si="3"/>
+        <v>139.62634015954634</v>
       </c>
       <c r="I10" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J10" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="6"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.5</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" si="7"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.25</v>
       </c>
       <c r="M10" s="5">
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="N10" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D10/360)*PI()*(C10+G10/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>167.55160819145564</v>
+      </c>
+      <c r="O10" s="5">
+        <f>(Tabel1[[#This Row],[Richting]]*D10/360)*PI()*(C10-G10/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>111.70107212763709</v>
+      </c>
+      <c r="P10" s="5">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="R10" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>6.826666666666667E-2</v>
+      </c>
+      <c r="S10" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>6.826666666666667E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <f>H10</f>
+        <v>139.62634015954634</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="0"/>
+        <v>139.62634015954637</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11">
         <f t="shared" si="1"/>
-        <v>32.179104477611943</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="10"/>
-        <v>24.363636363636363</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="8"/>
-        <v>267.03537555513242</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="9"/>
-        <v>141.37166941154069</v>
-      </c>
-      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
-        <v>204.20352248333654</v>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" si="3"/>
-        <v>204.20352248333654</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>120</v>
-      </c>
-      <c r="D11">
-        <v>180</v>
-      </c>
-      <c r="E11">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G11" s="5">
         <v>40</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11" si="11">(D11/360)*PI()*C11</f>
-        <v>188.49555921538757</v>
+        <f t="shared" ref="H11" si="4">(D11/360)*PI()*C11</f>
+        <v>104.71975511965977</v>
       </c>
       <c r="I11" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ref="K11" si="12">D11+0.5*E11</f>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.5</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11" si="13">D11-0.5*E11</f>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.25</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" ref="M11" si="14">K11/L11*I11</f>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" ref="N11" si="15">L11/K11*I11</f>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D11/360)*PI()*(C11+G11/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>125.66370614359171</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11" si="16">(D11/360)*PI()*(C11+G11*B11)</f>
-        <v>251.32741228718345</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D11/360)*PI()*(C11-G11/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>83.775804095727807</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11" si="17">(D11/360)*PI()*(C11-G11*B11)</f>
-        <v>125.66370614359172</v>
-      </c>
-      <c r="Q11" s="3">
-        <f t="shared" si="2"/>
-        <v>188.49555921538757</v>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="3"/>
-        <v>188.49555921538757</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="Q11" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.0666666666666664</v>
+      </c>
+      <c r="R11" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>5.1199999999999989E-2</v>
+      </c>
+      <c r="S11" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>5.1199999999999989E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f>H11</f>
+        <v>104.71975511965977</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="0"/>
+        <v>104.71975511965977</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>25</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F27" si="18">E12*PI()</f>
+        <f t="shared" ref="F12:F27" si="5">E12*PI()</f>
         <v>78.539816339744831</v>
       </c>
       <c r="G12" s="5">
         <v>40</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ref="H12:H27" si="19">(D12/360)*PI()*C12</f>
-        <v>172.78759594743863</v>
+        <f t="shared" ref="H12:H27" si="6">(D12/360)*PI()*C12</f>
+        <v>69.813170079773172</v>
       </c>
       <c r="I12" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J12" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" ref="K12:K27" si="20">D12+0.5*E12</f>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.5</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12:L27" si="21">D12-0.5*E12</f>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.25</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" ref="M12:M27" si="22">K12/L12*I12</f>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" ref="N12:N27" si="23">L12/K12*I12</f>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D12/360)*PI()*(C12+G12/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>83.775804095727821</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:O27" si="24">(D12/360)*PI()*(C12+G12*B12)</f>
-        <v>235.61944901923448</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D12/360)*PI()*(C12-G12/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>55.850536063818545</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" ref="P12:P27" si="25">(D12/360)*PI()*(C12-G12*B12)</f>
-        <v>109.95574287564276</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" ref="Q12:Q27" si="26">H12</f>
-        <v>172.78759594743863</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" ref="R12:R27" si="27">(O12+P12)/2</f>
-        <v>172.7875959474386</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="R12" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>3.4133333333333335E-2</v>
+      </c>
+      <c r="S12" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>3.4133333333333335E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <f>H12</f>
+        <v>69.813170079773172</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" ref="U12:U27" si="7">(N12+O12)/2</f>
+        <v>69.813170079773187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>25</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G13" s="5">
         <v>40</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="19"/>
-        <v>157.07963267948966</v>
+        <f t="shared" si="6"/>
+        <v>34.906585039886586</v>
       </c>
       <c r="I13" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J13" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.5</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.25</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D13/360)*PI()*(C13+G13/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>41.887902047863911</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="24"/>
-        <v>219.91148575128551</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D13/360)*PI()*(C13-G13/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>27.925268031909273</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="25"/>
-        <v>94.247779607693786</v>
-      </c>
-      <c r="Q13" s="3">
-        <f t="shared" si="26"/>
-        <v>157.07963267948966</v>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="27"/>
-        <v>157.07963267948963</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="Q13" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="R13" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>1.7066666666666667E-2</v>
+      </c>
+      <c r="S13" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>1.7066666666666667E-2</v>
+      </c>
+      <c r="T13" s="3">
+        <f>H13</f>
+        <v>34.906585039886586</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="7"/>
+        <v>34.906585039886593</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>25</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G14" s="5">
         <v>40</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="19"/>
-        <v>141.37166941154069</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <v>11.780972450961723</v>
+      </c>
+      <c r="K14" s="5" t="e">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="5" t="e">
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="5" t="e">
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D14/360)*PI()*(C14+G14/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>0</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="24"/>
-        <v>204.20352248333654</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D14/360)*PI()*(C14-G14/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>0</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="25"/>
-        <v>78.539816339744831</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="26"/>
-        <v>141.37166941154069</v>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="27"/>
-        <v>141.37166941154069</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="e">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" s="5" t="e">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="3">
+        <f>H14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>180</v>
+        <v>-40</v>
       </c>
       <c r="E15">
         <v>25</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G15" s="5">
         <v>40</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="19"/>
-        <v>125.66370614359172</v>
+        <f t="shared" si="6"/>
+        <v>-34.906585039886586</v>
       </c>
       <c r="I15" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J15" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D15/360)*PI()*(C15+G15/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>27.925268031909273</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="24"/>
-        <v>188.49555921538757</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D15/360)*PI()*(C15-G15/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>41.887902047863911</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="25"/>
-        <v>62.831853071795862</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="26"/>
-        <v>125.66370614359172</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="27"/>
-        <v>125.66370614359172</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="R15" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>1.7066666666666667E-2</v>
+      </c>
+      <c r="S15" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>1.7066666666666667E-2</v>
+      </c>
+      <c r="T15" s="3">
+        <f>H15</f>
+        <v>-34.906585039886586</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="7"/>
+        <v>34.906585039886593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D16">
-        <v>180</v>
+        <v>-80</v>
       </c>
       <c r="E16">
         <v>25</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G16" s="5">
         <v>40</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="19"/>
-        <v>109.95574287564276</v>
+        <f t="shared" si="6"/>
+        <v>-69.813170079773172</v>
       </c>
       <c r="I16" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J16" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D16/360)*PI()*(C16+G16/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>55.850536063818545</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="24"/>
-        <v>172.78759594743863</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D16/360)*PI()*(C16-G16/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>83.775804095727821</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="25"/>
-        <v>47.123889803846893</v>
-      </c>
-      <c r="Q16" s="3">
-        <f t="shared" si="26"/>
-        <v>109.95574287564276</v>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="27"/>
-        <v>109.95574287564276</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="R16" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>3.4133333333333335E-2</v>
+      </c>
+      <c r="S16" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>3.4133333333333335E-2</v>
+      </c>
+      <c r="T16" s="3">
+        <f>H16</f>
+        <v>-69.813170079773172</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="7"/>
+        <v>69.813170079773187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>180</v>
+        <v>-120</v>
       </c>
       <c r="E17">
         <v>25</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G17" s="5">
         <v>40</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="19"/>
-        <v>94.247779607693786</v>
+        <f t="shared" si="6"/>
+        <v>-104.71975511965977</v>
       </c>
       <c r="I17" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J17" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D17/360)*PI()*(C17+G17/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>83.775804095727807</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="24"/>
-        <v>157.07963267948966</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D17/360)*PI()*(C17-G17/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>125.66370614359171</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="25"/>
-        <v>31.415926535897931</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="26"/>
-        <v>94.247779607693786</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="27"/>
-        <v>94.247779607693801</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.0666666666666664</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="R17" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>5.1199999999999989E-2</v>
+      </c>
+      <c r="S17" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>5.1199999999999989E-2</v>
+      </c>
+      <c r="T17" s="3">
+        <f>H17</f>
+        <v>-104.71975511965977</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="7"/>
+        <v>104.71975511965977</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>180</v>
+        <v>-160</v>
       </c>
       <c r="E18">
         <v>25</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G18" s="5">
         <v>40</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="19"/>
-        <v>78.539816339744831</v>
+        <f t="shared" si="6"/>
+        <v>-139.62634015954634</v>
       </c>
       <c r="I18" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J18" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D18/360)*PI()*(C18+G18/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>111.70107212763709</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="24"/>
-        <v>141.37166941154069</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D18/360)*PI()*(C18-G18/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>167.55160819145564</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="25"/>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="Q18" s="3">
-        <f t="shared" si="26"/>
-        <v>78.539816339744831</v>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="27"/>
-        <v>78.539816339744831</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.4222222222222223</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="R18" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>6.826666666666667E-2</v>
+      </c>
+      <c r="S18" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>6.826666666666667E-2</v>
+      </c>
+      <c r="T18" s="3">
+        <f>H18</f>
+        <v>-139.62634015954634</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="7"/>
+        <v>139.62634015954637</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>180</v>
+        <v>-200</v>
       </c>
       <c r="E19">
         <v>25</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G19" s="5">
         <v>40</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="19"/>
-        <v>62.831853071795862</v>
+        <f t="shared" si="6"/>
+        <v>-174.53292519943295</v>
       </c>
       <c r="I19" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J19" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333336</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D19/360)*PI()*(C19+G19/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>139.62634015954637</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="24"/>
-        <v>125.66370614359172</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D19/360)*PI()*(C19-G19/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>209.43951023931953</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <f t="shared" si="26"/>
-        <v>62.831853071795862</v>
-      </c>
-      <c r="R19" s="3">
-        <f t="shared" si="27"/>
-        <v>62.831853071795862</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="R19" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>8.533333333333333E-2</v>
+      </c>
+      <c r="S19" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>8.533333333333333E-2</v>
+      </c>
+      <c r="T19" s="3">
+        <f>H19</f>
+        <v>-174.53292519943295</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="7"/>
+        <v>174.53292519943295</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>180</v>
+        <v>-240</v>
       </c>
       <c r="E20">
         <v>25</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G20" s="5">
         <v>40</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="19"/>
-        <v>47.123889803846893</v>
+        <f t="shared" si="6"/>
+        <v>-209.43951023931953</v>
       </c>
       <c r="I20" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J20" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D20/360)*PI()*(C20+G20/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>167.55160819145561</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="24"/>
-        <v>109.95574287564276</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D20/360)*PI()*(C20-G20/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>251.32741228718342</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="25"/>
-        <v>-15.707963267948966</v>
-      </c>
-      <c r="Q20" s="3">
-        <f t="shared" si="26"/>
-        <v>47.123889803846893</v>
-      </c>
-      <c r="R20" s="3">
-        <f t="shared" si="27"/>
-        <v>47.123889803846893</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.1333333333333329</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="R20" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.10239999999999998</v>
+      </c>
+      <c r="S20" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.10239999999999998</v>
+      </c>
+      <c r="T20" s="3">
+        <f>H20</f>
+        <v>-209.43951023931953</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="7"/>
+        <v>209.43951023931953</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>-280</v>
       </c>
       <c r="E21">
         <v>25</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G21" s="5">
         <v>40</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="19"/>
-        <v>31.415926535897931</v>
+        <f t="shared" si="6"/>
+        <v>-244.34609527920611</v>
       </c>
       <c r="I21" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J21" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D21/360)*PI()*(C21+G21/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>195.47687622336491</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="24"/>
-        <v>94.247779607693786</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D21/360)*PI()*(C21-G21/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>293.21531433504737</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="25"/>
-        <v>-31.415926535897931</v>
-      </c>
-      <c r="Q21" s="3">
-        <f t="shared" si="26"/>
-        <v>31.415926535897931</v>
-      </c>
-      <c r="R21" s="3">
-        <f t="shared" si="27"/>
-        <v>31.415926535897928</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.4888888888888889</v>
+      </c>
+      <c r="Q21" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="R21" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.11946666666666668</v>
+      </c>
+      <c r="S21" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.11946666666666667</v>
+      </c>
+      <c r="T21" s="3">
+        <f>H21</f>
+        <v>-244.34609527920611</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="7"/>
+        <v>244.34609527920614</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>180</v>
+        <v>-320</v>
       </c>
       <c r="E22">
         <v>25</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G22" s="5">
         <v>40</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="19"/>
-        <v>15.707963267948966</v>
+        <f t="shared" si="6"/>
+        <v>-279.25268031909269</v>
       </c>
       <c r="I22" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J22" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333332</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D22/360)*PI()*(C22+G22/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>223.40214425527418</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="24"/>
-        <v>78.539816339744831</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D22/360)*PI()*(C22-G22/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>335.10321638291128</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="25"/>
-        <v>-47.123889803846893</v>
-      </c>
-      <c r="Q22" s="3">
-        <f t="shared" si="26"/>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="R22" s="3">
-        <f t="shared" si="27"/>
-        <v>15.707963267948969</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.8444444444444446</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="R22" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.13653333333333334</v>
+      </c>
+      <c r="S22" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.13653333333333334</v>
+      </c>
+      <c r="T22" s="3">
+        <f>H22</f>
+        <v>-279.25268031909269</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="7"/>
+        <v>279.25268031909275</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>90</v>
+        <v>-360</v>
       </c>
       <c r="E23">
         <v>25</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G23" s="5">
         <v>40</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-314.15926535897933</v>
       </c>
       <c r="I23" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J23" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="20"/>
-        <v>102.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="21"/>
-        <v>77.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333336</v>
       </c>
       <c r="M23" s="5">
-        <f>K23/L23*I23</f>
-        <v>37.032258064516128</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="23"/>
-        <v>21.170731707317074</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D23/360)*PI()*(C23+G23/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>251.32741228718345</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="24"/>
-        <v>31.415926535897931</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D23/360)*PI()*(C23-G23/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>376.99111843077515</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="25"/>
-        <v>-31.415926535897931</v>
-      </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>4.8</v>
+      </c>
+      <c r="R23" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>0.15359999999999996</v>
+      </c>
+      <c r="S23" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="T23" s="3">
+        <f>H23</f>
+        <v>-314.15926535897933</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="7"/>
+        <v>314.15926535897927</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="C24">
-        <v>-10</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>-180</v>
@@ -2440,63 +2811,75 @@
         <v>25</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G24" s="5">
         <v>40</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="19"/>
-        <v>15.707963267948966</v>
+        <f t="shared" si="6"/>
+        <v>-157.07963267948966</v>
       </c>
       <c r="I24" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="20"/>
-        <v>-167.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="21"/>
-        <v>-192.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>20.833333333333336</v>
       </c>
       <c r="M24" s="5">
-        <f>K24/L24*I24</f>
-        <v>24.363636363636363</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>31.25</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="23"/>
-        <v>32.179104477611943</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D24/360)*PI()*(C24+G24/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>125.66370614359172</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="24"/>
-        <v>78.539816339744831</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D24/360)*PI()*(C24-G24/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>188.49555921538757</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="25"/>
-        <v>-47.123889803846893</v>
-      </c>
-      <c r="Q24" s="3">
-        <f t="shared" si="26"/>
-        <v>15.707963267948966</v>
-      </c>
-      <c r="R24" s="3">
-        <f t="shared" si="27"/>
-        <v>15.707963267948969</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="R24" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>7.6799999999999979E-2</v>
+      </c>
+      <c r="S24" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="T24" s="3">
+        <f>H24</f>
+        <v>-157.07963267948966</v>
+      </c>
+      <c r="U24" s="3">
+        <f t="shared" si="7"/>
+        <v>157.07963267948963</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C25">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>180</v>
@@ -2505,63 +2888,75 @@
         <v>25</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G25" s="5">
         <v>40</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="19"/>
-        <v>-31.415926535897931</v>
+        <f t="shared" si="6"/>
+        <v>157.07963267948966</v>
       </c>
       <c r="I25" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J25" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.4999999999999998</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.249999999999996</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333336</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D25/360)*PI()*(C25+G25/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>188.49555921538757</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="24"/>
-        <v>31.415926535897931</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D25/360)*PI()*(C25-G25/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>125.66370614359172</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="25"/>
-        <v>-94.247779607693786</v>
-      </c>
-      <c r="Q25" s="3">
-        <f t="shared" si="26"/>
-        <v>-31.415926535897931</v>
-      </c>
-      <c r="R25" s="3">
-        <f t="shared" si="27"/>
-        <v>-31.415926535897928</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="R25" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>7.6800000000000007E-2</v>
+      </c>
+      <c r="S25" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>7.6799999999999979E-2</v>
+      </c>
+      <c r="T25" s="3">
+        <f>H25</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="7"/>
+        <v>157.07963267948963</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-30</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>180</v>
@@ -2570,124 +2965,374 @@
         <v>25</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G26" s="5">
         <v>40</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="19"/>
-        <v>-47.123889803846893</v>
+        <f t="shared" si="6"/>
+        <v>157.07963267948966</v>
       </c>
       <c r="I26" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J26" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>11.780972450961723</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.4999999999999998</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>31.249999999999996</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>20.833333333333336</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D26/360)*PI()*(C26+G26/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>188.49555921538757</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="24"/>
-        <v>15.707963267948966</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D26/360)*PI()*(C26-G26/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>125.66370614359172</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="25"/>
-        <v>-109.95574287564276</v>
-      </c>
-      <c r="Q26" s="3">
-        <f t="shared" si="26"/>
-        <v>-47.123889803846893</v>
-      </c>
-      <c r="R26" s="3">
-        <f t="shared" si="27"/>
-        <v>-47.123889803846893</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.4</v>
+      </c>
+      <c r="Q26" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="R26" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>7.6800000000000007E-2</v>
+      </c>
+      <c r="S26" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>7.6799999999999979E-2</v>
+      </c>
+      <c r="T26" s="3">
+        <f>H26</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="U26" s="3">
+        <f t="shared" si="7"/>
+        <v>157.07963267948963</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C27">
-        <v>-40</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>180</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="18"/>
-        <v>78.539816339744831</v>
+        <f t="shared" si="5"/>
+        <v>70.685834705770347</v>
       </c>
       <c r="G27" s="5">
-        <v>40</v>
+        <v>33.4</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="19"/>
-        <v>-62.831853071795862</v>
+        <f t="shared" si="6"/>
+        <v>157.07963267948966</v>
       </c>
       <c r="I27" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>13.194689145077133</v>
+        <v>10.602875205865551</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="20"/>
-        <v>192.5</v>
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
+        <v>1.4009603841536615</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="21"/>
-        <v>167.5</v>
+        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
+        <v>30.012004801920771</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="22"/>
-        <v>32.179104477611943</v>
+        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
+        <v>21.422450728363327</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="23"/>
-        <v>24.363636363636363</v>
+        <f>(Tabel1[[#This Row],[Richting]]*D27/360)*PI()*(C27+G27/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>183.31193133696442</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="24"/>
+        <f>(Tabel1[[#This Row],[Richting]]*D27/360)*PI()*(C27-G27/2*Tabel1[[#This Row],[Richting]])</f>
+        <v>130.84733402201488</v>
+      </c>
+      <c r="P27" s="5">
+        <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>2.5933333333333333</v>
+      </c>
+      <c r="Q27" s="5">
+        <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
+        <v>1.8511111111111109</v>
+      </c>
+      <c r="R27" s="5">
+        <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
+        <v>8.6409866666666654E-2</v>
+      </c>
+      <c r="S27" s="5">
+        <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
+        <v>8.6409866666666654E-2</v>
+      </c>
+      <c r="T27" s="3">
+        <f>H27</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="U27" s="3">
+        <f t="shared" si="7"/>
+        <v>157.07963267948963</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f>1830/693</f>
+        <v>2.6406926406926408</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>1300/693</f>
+        <v>1.875901875901876</v>
+      </c>
+      <c r="H30">
+        <f>L5/M5</f>
+        <v>1.5</v>
+      </c>
+      <c r="P30" t="s">
+        <v>110</v>
+      </c>
+      <c r="R30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S30" t="s">
+        <v>112</v>
+      </c>
+      <c r="T30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f>PI()*100</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="N31">
+        <f>M31/2</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="P31">
+        <v>200</v>
+      </c>
+      <c r="R31">
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <f>P31/R31</f>
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f>R31/P31</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32">
+        <v>693</v>
+      </c>
+      <c r="I32">
+        <v>-500</v>
+      </c>
+      <c r="J32">
+        <v>1300</v>
+      </c>
+      <c r="K32">
+        <f>ABS(I32-J32)</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34">
+        <f>H32/H33/PI()</f>
+        <v>22.058875112536693</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
         <v>0</v>
       </c>
-      <c r="P27" s="5">
-        <f t="shared" si="25"/>
-        <v>-125.66370614359172</v>
-      </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="26"/>
-        <v>-62.831853071795862</v>
-      </c>
-      <c r="R27" s="3">
-        <f t="shared" si="27"/>
-        <v>-62.831853071795862</v>
+      <c r="G40">
+        <v>255</v>
+      </c>
+      <c r="H40">
+        <v>80</v>
+      </c>
+      <c r="I40" t="e">
+        <f>(E40-F40)*(#REF!-H40)/(G40-F40)+H40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J40">
+        <v>91</v>
+      </c>
+      <c r="K40">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>35</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <f>E44/F44</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="H44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>-35</v>
+      </c>
+      <c r="G45">
+        <f>E45/F45</f>
+        <v>-0.8571428571428571</v>
+      </c>
+      <c r="H45" t="e">
+        <f>#REF!*G45</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>33</v>
+      </c>
+      <c r="E46">
+        <v>-35</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <f>E46/F46</f>
+        <v>-1.1666666666666667</v>
+      </c>
+      <c r="H46">
+        <f>D46*E46/ABS(E46)</f>
+        <v>-33</v>
+      </c>
+      <c r="I46" t="e">
+        <f>H46/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K46">
+        <f>-1*1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f>0/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
@@ -3173,41 +3818,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" t="s">
         <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -3587,7 +4232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3598,19 +4243,19 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
@@ -3624,7 +4269,7 @@
         <v>3000</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="0">D3/ABS(D3)*(E3-C3)</f>
+        <f t="shared" ref="F3:F6" si="0">D3/ABS(D3)*(E3-C3)</f>
         <v>1000</v>
       </c>
     </row>

--- a/Formulas-Rotations.xlsx
+++ b/Formulas-Rotations.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12090"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="24720" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Formules" sheetId="2" r:id="rId1"/>
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
     <sheet name="Blad2" sheetId="4" r:id="rId4"/>
+    <sheet name="PID Controller" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
   <si>
     <t>wielafstand cm</t>
   </si>
@@ -518,9 +519,6 @@
     <t>hasPassed</t>
   </si>
   <si>
-    <t>Calc to see if end state is reached</t>
-  </si>
-  <si>
     <t>tick/rev</t>
   </si>
   <si>
@@ -585,6 +583,84 @@
   </si>
   <si>
     <t>omwR</t>
+  </si>
+  <si>
+    <t>Map function</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>in_min</t>
+  </si>
+  <si>
+    <t>in_max</t>
+  </si>
+  <si>
+    <t>out_min</t>
+  </si>
+  <si>
+    <t>out_max</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>set value</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>control output</t>
+  </si>
+  <si>
+    <t>y_min</t>
+  </si>
+  <si>
+    <t>y_max</t>
+  </si>
+  <si>
+    <t>max_output</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Kd</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>e (w-x)</t>
+  </si>
+  <si>
+    <t>rpmcalc</t>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>ticks</t>
+  </si>
+  <si>
+    <t>ticks/rev</t>
+  </si>
+  <si>
+    <t>lastRPMtime</t>
   </si>
 </sst>
 </file>
@@ -595,7 +671,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,6 +743,14 @@
       <color rgb="FFB5CEA8"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -741,7 +825,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,6 +856,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Invoer" xfId="2" builtinId="20"/>
@@ -779,7 +864,13 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Uitvoer" xfId="3" builtinId="21"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -837,7 +928,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="B4:U28" totalsRowCount="1">
-  <autoFilter ref="B4:U28"/>
+  <autoFilter ref="B4:U27"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Richting">
       <calculatedColumnFormula>IF(ABS(D5)&lt;&gt;0,D5/ABS(D5),1)</calculatedColumnFormula>
@@ -849,22 +940,22 @@
     <tableColumn id="6" name="Wielbasis"/>
     <tableColumn id="7" name="af te leggen afstand"/>
     <tableColumn id="8" name="snelheid (rpm) V"/>
-    <tableColumn id="20" name="snelheid (KM/H)" dataDxfId="14" totalsRowDxfId="6">
+    <tableColumn id="20" name="snelheid (KM/H)" dataDxfId="16" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="verhouding">
+    <tableColumn id="9" name="verhouding" dataDxfId="9">
       <calculatedColumnFormula>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Vl">
-      <calculatedColumnFormula>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</calculatedColumnFormula>
+    <tableColumn id="12" name="Vl" dataDxfId="8">
+      <calculatedColumnFormula>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="Vr" dataDxfId="7">
-      <calculatedColumnFormula>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(O5=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B4,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Dl" dataDxfId="9" totalsRowDxfId="5">
+    <tableColumn id="15" name="Dl" dataDxfId="15" totalsRowDxfId="5">
       <calculatedColumnFormula>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5+G5/2*Tabel1[[#This Row],[Richting]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Dr" dataDxfId="8" totalsRowDxfId="4">
+    <tableColumn id="16" name="Dr" dataDxfId="14" totalsRowDxfId="4">
       <calculatedColumnFormula>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5-G5/2*Tabel1[[#This Row],[Richting]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="omwL" dataDxfId="13" totalsRowDxfId="3">
@@ -873,10 +964,10 @@
     <tableColumn id="22" name="omwR" dataDxfId="12" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="tijd links" dataDxfId="10" totalsRowDxfId="1">
+    <tableColumn id="14" name="tijd links" dataDxfId="11" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="tijd rechts" dataDxfId="11" totalsRowDxfId="0">
+    <tableColumn id="17" name="tijd rechts" dataDxfId="10" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="Dc">
@@ -1175,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U50"/>
+  <dimension ref="B2:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,16 +1406,16 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" t="s">
-        <v>115</v>
-      </c>
       <c r="R4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" t="s">
         <v>108</v>
-      </c>
-      <c r="S4" t="s">
-        <v>109</v>
       </c>
       <c r="T4" t="s">
         <v>44</v>
@@ -1336,1550 +1427,1550 @@
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <f>IF(ABS(D5)&lt;&gt;0,D5/ABS(D5),1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>360</v>
+        <v>-180</v>
       </c>
       <c r="E5">
         <v>25</v>
       </c>
       <c r="F5" s="5">
-        <f>Tabel1[[#This Row],[af te leggen afstand]]/10</f>
-        <v>31.415926535897931</v>
+        <f t="shared" ref="F5:F11" si="0">E5*PI()</f>
+        <v>78.539816339744831</v>
       </c>
       <c r="G5" s="5">
         <v>40</v>
       </c>
       <c r="H5" s="5">
         <f>(D5/360)*PI()*C5</f>
-        <v>314.15926535897933</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J5" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>1.8849555921538759</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K5" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.4999999999999998</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>12.5</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>-8</v>
       </c>
       <c r="M5" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>8.3333333333333339</v>
+        <f>IF(O5=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B4,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>8</v>
       </c>
       <c r="N5" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5+G5/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>376.99111843077515</v>
+        <v>-31.415926535897931</v>
       </c>
       <c r="O5" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5-G5/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>251.32741228718345</v>
+        <v>31.415926535897931</v>
       </c>
       <c r="P5" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>11.999999999999998</v>
+        <v>-0.39999999999999997</v>
       </c>
       <c r="Q5" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>8</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="R5" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.95999999999999985</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="S5" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.96</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="T5" s="3">
-        <f>H5</f>
-        <v>314.15926535897933</v>
+        <f t="shared" ref="T5:T27" si="1">H5</f>
+        <v>0</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" ref="U5:U11" si="0">(N5+O5)/2</f>
-        <v>314.15926535897927</v>
+        <f t="shared" ref="U5:U11" si="2">(N5+O5)/2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f t="shared" ref="B6:B27" si="1">IF(ABS(D6)&lt;&gt;0,D6/ABS(D6),1)</f>
+        <f t="shared" ref="B6:B27" si="3">IF(ABS(D6)&lt;&gt;0,D6/ABS(D6),1)</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="D6">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" ref="F6:F11" si="2">E6*PI()</f>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G6" s="5">
         <v>40</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H10" si="3">(D6/360)*PI()*C6</f>
-        <v>279.25268031909269</v>
+        <f t="shared" ref="H6:H10" si="4">(D6/360)*PI()*C6</f>
+        <v>-31.415926535897931</v>
       </c>
       <c r="I6" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J6" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K6" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.25</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>0</v>
       </c>
       <c r="M6" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333332</v>
+        <f>IF(O6=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B5,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>-16</v>
       </c>
       <c r="N6" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D6/360)*PI()*(C6+G6/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>335.10321638291128</v>
+        <v>0</v>
       </c>
       <c r="O6" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D6/360)*PI()*(C6-G6/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>223.40214425527418</v>
+        <v>-62.831853071795862</v>
       </c>
       <c r="P6" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>4.2666666666666666</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.8444444444444446</v>
-      </c>
-      <c r="R6" s="5">
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="R6" s="5" t="e">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.13653333333333334</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S6" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.13653333333333334</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="T6" s="3">
-        <f>H6</f>
-        <v>279.25268031909269</v>
+        <f t="shared" si="1"/>
+        <v>-31.415926535897931</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="0"/>
-        <v>279.25268031909275</v>
+        <f t="shared" si="2"/>
+        <v>-31.415926535897931</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>280</v>
+        <v>-180</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G7" s="5">
         <v>40</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="3"/>
-        <v>244.34609527920611</v>
+        <f t="shared" si="4"/>
+        <v>-31.415926535897931</v>
       </c>
       <c r="I7" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J7" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K7" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.25</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>0</v>
       </c>
       <c r="M7" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333332</v>
+        <f>IF(O7=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B6,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>16</v>
       </c>
       <c r="N7" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D7/360)*PI()*(C7+G7/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>293.21531433504737</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D7/360)*PI()*(C7-G7/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>195.47687622336491</v>
+        <v>62.831853071795862</v>
       </c>
       <c r="P7" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>3.7333333333333334</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.4888888888888889</v>
-      </c>
-      <c r="R7" s="5">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="R7" s="5" t="e">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.11946666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S7" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.11946666666666668</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="T7" s="3">
-        <f>H7</f>
-        <v>244.34609527920611</v>
+        <f t="shared" si="1"/>
+        <v>-31.415926535897931</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="0"/>
-        <v>244.34609527920614</v>
+        <f t="shared" si="2"/>
+        <v>31.415926535897931</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>25</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G8" s="5">
         <v>40</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="3"/>
-        <v>209.43951023931953</v>
+        <f t="shared" si="4"/>
+        <v>62.831853071795862</v>
       </c>
       <c r="I8" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J8" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K8" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.5</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="L8" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.25</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>55.999999999999993</v>
       </c>
       <c r="M8" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333332</v>
+        <f>IF(O8=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B7,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>18.666666666666668</v>
       </c>
       <c r="N8" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D8/360)*PI()*(C8+G8/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>251.32741228718342</v>
+        <v>94.247779607693786</v>
       </c>
       <c r="O8" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D8/360)*PI()*(C8-G8/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>167.55160819145561</v>
+        <v>31.415926535897931</v>
       </c>
       <c r="P8" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>3.1999999999999993</v>
+        <v>1.2</v>
       </c>
       <c r="Q8" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.1333333333333329</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="R8" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.10239999999999998</v>
+        <v>2.1428571428571429E-2</v>
       </c>
       <c r="S8" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.10239999999999998</v>
+        <v>2.1428571428571425E-2</v>
       </c>
       <c r="T8" s="3">
-        <f>H8</f>
-        <v>209.43951023931953</v>
+        <f t="shared" si="1"/>
+        <v>62.831853071795862</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="0"/>
-        <v>209.43951023931953</v>
+        <f t="shared" si="2"/>
+        <v>62.831853071795862</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E9">
         <v>25</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G9" s="5">
         <v>40</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>174.53292519943295</v>
+        <f t="shared" si="4"/>
+        <v>78.539816339744831</v>
       </c>
       <c r="I9" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J9" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K9" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.4999999999999998</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="L9" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.249999999999996</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>45.333333333333336</v>
       </c>
       <c r="M9" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333336</v>
+        <f>IF(O9=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B8,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>19.428571428571427</v>
       </c>
       <c r="N9" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D9/360)*PI()*(C9+G9/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>209.43951023931953</v>
+        <v>109.95574287564276</v>
       </c>
       <c r="O9" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D9/360)*PI()*(C9-G9/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>139.62634015954637</v>
+        <v>47.123889803846893</v>
       </c>
       <c r="P9" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.6666666666666665</v>
+        <v>1.4</v>
       </c>
       <c r="Q9" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.7777777777777779</v>
+        <v>0.6</v>
       </c>
       <c r="R9" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>8.5333333333333344E-2</v>
+        <v>3.0882352941176468E-2</v>
       </c>
       <c r="S9" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>8.533333333333333E-2</v>
+        <v>3.0882352941176472E-2</v>
       </c>
       <c r="T9" s="3">
-        <f>H9</f>
-        <v>174.53292519943295</v>
+        <f t="shared" si="1"/>
+        <v>78.539816339744831</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="0"/>
-        <v>174.53292519943295</v>
+        <f t="shared" si="2"/>
+        <v>78.539816339744817</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>25</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G10" s="5">
         <v>40</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="3"/>
-        <v>139.62634015954634</v>
+        <f t="shared" si="4"/>
+        <v>94.247779607693786</v>
       </c>
       <c r="I10" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J10" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K10" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L10" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.25</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>40</v>
       </c>
       <c r="M10" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333332</v>
+        <f>IF(O10=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B9,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>20</v>
       </c>
       <c r="N10" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D10/360)*PI()*(C10+G10/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>167.55160819145564</v>
+        <v>125.66370614359172</v>
       </c>
       <c r="O10" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D10/360)*PI()*(C10-G10/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>111.70107212763709</v>
+        <v>62.831853071795862</v>
       </c>
       <c r="P10" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.1333333333333333</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="Q10" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.4222222222222223</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="R10" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>6.826666666666667E-2</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="S10" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>6.826666666666667E-2</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="T10" s="3">
-        <f>H10</f>
-        <v>139.62634015954634</v>
+        <f t="shared" si="1"/>
+        <v>94.247779607693786</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="0"/>
-        <v>139.62634015954637</v>
+        <f t="shared" si="2"/>
+        <v>94.247779607693786</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <v>25</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G11" s="5">
         <v>40</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ref="H11" si="4">(D11/360)*PI()*C11</f>
-        <v>104.71975511965977</v>
+        <f t="shared" ref="H11" si="5">(D11/360)*PI()*C11</f>
+        <v>109.95574287564276</v>
       </c>
       <c r="I11" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J11" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K11" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L11" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.25</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>36.799999999999997</v>
       </c>
       <c r="M11" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333332</v>
+        <f>IF(O11=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B10,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>20.444444444444443</v>
       </c>
       <c r="N11" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D11/360)*PI()*(C11+G11/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>125.66370614359171</v>
+        <v>141.37166941154069</v>
       </c>
       <c r="O11" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D11/360)*PI()*(C11-G11/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>83.775804095727807</v>
+        <v>78.539816339744831</v>
       </c>
       <c r="P11" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.5999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.0666666666666664</v>
+        <v>1</v>
       </c>
       <c r="R11" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>5.1199999999999989E-2</v>
+        <v>4.8913043478260872E-2</v>
       </c>
       <c r="S11" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>5.1199999999999989E-2</v>
+        <v>4.8913043478260872E-2</v>
       </c>
       <c r="T11" s="3">
-        <f>H11</f>
-        <v>104.71975511965977</v>
+        <f t="shared" si="1"/>
+        <v>109.95574287564276</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="0"/>
-        <v>104.71975511965977</v>
+        <f t="shared" si="2"/>
+        <v>109.95574287564276</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E12">
         <v>25</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F27" si="5">E12*PI()</f>
+        <f t="shared" ref="F12:F27" si="6">E12*PI()</f>
         <v>78.539816339744831</v>
       </c>
       <c r="G12" s="5">
         <v>40</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ref="H12:H27" si="6">(D12/360)*PI()*C12</f>
-        <v>69.813170079773172</v>
+        <f t="shared" ref="H12:H27" si="7">(D12/360)*PI()*C12</f>
+        <v>125.66370614359172</v>
       </c>
       <c r="I12" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J12" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K12" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="L12" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.25</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>34.666666666666671</v>
       </c>
       <c r="M12" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333332</v>
+        <f>IF(O12=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B11,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>20.8</v>
       </c>
       <c r="N12" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D12/360)*PI()*(C12+G12/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>83.775804095727821</v>
+        <v>157.07963267948966</v>
       </c>
       <c r="O12" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D12/360)*PI()*(C12-G12/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>55.850536063818545</v>
+        <v>94.247779607693786</v>
       </c>
       <c r="P12" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.0666666666666667</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0.71111111111111114</v>
+        <v>1.2</v>
       </c>
       <c r="R12" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>3.4133333333333335E-2</v>
+        <v>5.7692307692307682E-2</v>
       </c>
       <c r="S12" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>3.4133333333333335E-2</v>
+        <v>5.7692307692307689E-2</v>
       </c>
       <c r="T12" s="3">
-        <f>H12</f>
-        <v>69.813170079773172</v>
+        <f t="shared" si="1"/>
+        <v>125.66370614359172</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" ref="U12:U27" si="7">(N12+O12)/2</f>
-        <v>69.813170079773187</v>
+        <f t="shared" ref="U12:U27" si="8">(N12+O12)/2</f>
+        <v>125.66370614359172</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-1</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>-180</v>
       </c>
       <c r="E13">
         <v>25</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G13" s="5">
         <v>40</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="6"/>
-        <v>34.906585039886586</v>
+        <f t="shared" si="7"/>
+        <v>-125.66370614359172</v>
       </c>
       <c r="I13" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K13" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="L13" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.25</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="M13" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333332</v>
+        <f>IF(O13=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B12,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>29.333333333333336</v>
       </c>
       <c r="N13" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D13/360)*PI()*(C13+G13/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>41.887902047863911</v>
+        <v>94.247779607693786</v>
       </c>
       <c r="O13" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D13/360)*PI()*(C13-G13/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>27.925268031909273</v>
+        <v>157.07963267948966</v>
       </c>
       <c r="P13" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0.53333333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="Q13" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0.35555555555555557</v>
+        <v>2</v>
       </c>
       <c r="R13" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>1.7066666666666667E-2</v>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="S13" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>1.7066666666666667E-2</v>
+        <v>6.8181818181818177E-2</v>
       </c>
       <c r="T13" s="3">
-        <f>H13</f>
-        <v>34.906585039886586</v>
+        <f t="shared" si="1"/>
+        <v>-125.66370614359172</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="7"/>
-        <v>34.906585039886593</v>
+        <f t="shared" si="8"/>
+        <v>125.66370614359172</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>25</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G14" s="5">
         <v>40</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>157.07963267948966</v>
       </c>
       <c r="I14" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J14" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
-      </c>
-      <c r="K14" s="5" t="e">
+        <v>7.5398223686155035</v>
+      </c>
+      <c r="K14" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="5" t="e">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="5" t="e">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>#DIV/0!</v>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="L14" s="5">
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>31.999999999999996</v>
+      </c>
+      <c r="M14" s="5">
+        <f>IF(O14=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B13,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>21.333333333333336</v>
       </c>
       <c r="N14" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D14/360)*PI()*(C14+G14/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>0</v>
+        <v>188.49555921538757</v>
       </c>
       <c r="O14" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D14/360)*PI()*(C14-G14/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>0</v>
+        <v>125.66370614359172</v>
       </c>
       <c r="P14" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q14" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="5" t="e">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="R14" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" s="5" t="e">
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="S14" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>#DIV/0!</v>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="T14" s="3">
-        <f>H14</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>157.07963267948966</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>157.07963267948963</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D15">
-        <v>-40</v>
+        <v>180</v>
       </c>
       <c r="E15">
         <v>25</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G15" s="5">
         <v>40</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="6"/>
-        <v>-34.906585039886586</v>
+        <f t="shared" si="7"/>
+        <v>172.78759594743863</v>
       </c>
       <c r="I15" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J15" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K15" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="L15" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333332</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>31.111111111111111</v>
       </c>
       <c r="M15" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O15=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B14,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>21.53846153846154</v>
       </c>
       <c r="N15" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D15/360)*PI()*(C15+G15/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>27.925268031909273</v>
+        <v>204.20352248333654</v>
       </c>
       <c r="O15" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D15/360)*PI()*(C15-G15/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>41.887902047863911</v>
+        <v>141.37166941154069</v>
       </c>
       <c r="P15" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0.35555555555555557</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="Q15" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0.53333333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="R15" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>1.7066666666666667E-2</v>
+        <v>8.357142857142856E-2</v>
       </c>
       <c r="S15" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>1.7066666666666667E-2</v>
+        <v>8.357142857142856E-2</v>
       </c>
       <c r="T15" s="3">
-        <f>H15</f>
-        <v>-34.906585039886586</v>
+        <f t="shared" si="1"/>
+        <v>172.78759594743863</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="7"/>
-        <v>34.906585039886593</v>
+        <f t="shared" si="8"/>
+        <v>172.7875959474386</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>-80</v>
+        <v>180</v>
       </c>
       <c r="E16">
         <v>25</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G16" s="5">
         <v>40</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="6"/>
-        <v>-69.813170079773172</v>
+        <f t="shared" si="7"/>
+        <v>188.49555921538757</v>
       </c>
       <c r="I16" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J16" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K16" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.4</v>
       </c>
       <c r="L16" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333332</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>30.4</v>
       </c>
       <c r="M16" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O16=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B15,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>21.714285714285715</v>
       </c>
       <c r="N16" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D16/360)*PI()*(C16+G16/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>55.850536063818545</v>
+        <v>219.91148575128551</v>
       </c>
       <c r="O16" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D16/360)*PI()*(C16-G16/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>83.775804095727821</v>
+        <v>157.07963267948966</v>
       </c>
       <c r="P16" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>0.71111111111111114</v>
+        <v>2.8</v>
       </c>
       <c r="Q16" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.0666666666666667</v>
+        <v>2</v>
       </c>
       <c r="R16" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>3.4133333333333335E-2</v>
+        <v>9.2105263157894732E-2</v>
       </c>
       <c r="S16" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>3.4133333333333335E-2</v>
+        <v>9.2105263157894732E-2</v>
       </c>
       <c r="T16" s="3">
-        <f>H16</f>
-        <v>-69.813170079773172</v>
+        <f t="shared" si="1"/>
+        <v>188.49555921538757</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="7"/>
-        <v>69.813170079773187</v>
+        <f t="shared" si="8"/>
+        <v>188.49555921538757</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D17">
-        <v>-120</v>
+        <v>180</v>
       </c>
       <c r="E17">
         <v>25</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G17" s="5">
         <v>40</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="6"/>
-        <v>-104.71975511965977</v>
+        <f t="shared" si="7"/>
+        <v>204.20352248333654</v>
       </c>
       <c r="I17" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J17" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K17" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="L17" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333332</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>29.818181818181817</v>
       </c>
       <c r="M17" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O17=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B16,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>21.866666666666667</v>
       </c>
       <c r="N17" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D17/360)*PI()*(C17+G17/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>83.775804095727807</v>
+        <v>235.61944901923448</v>
       </c>
       <c r="O17" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D17/360)*PI()*(C17-G17/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>125.66370614359171</v>
+        <v>172.78759594743863</v>
       </c>
       <c r="P17" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.0666666666666664</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.5999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R17" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>5.1199999999999989E-2</v>
+        <v>0.10060975609756098</v>
       </c>
       <c r="S17" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>5.1199999999999989E-2</v>
+        <v>0.10060975609756098</v>
       </c>
       <c r="T17" s="3">
-        <f>H17</f>
-        <v>-104.71975511965977</v>
+        <f t="shared" si="1"/>
+        <v>204.20352248333654</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="7"/>
-        <v>104.71975511965977</v>
+        <f t="shared" si="8"/>
+        <v>204.20352248333654</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D18">
-        <v>-160</v>
+        <v>180</v>
       </c>
       <c r="E18">
         <v>25</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G18" s="5">
         <v>40</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="6"/>
-        <v>-139.62634015954634</v>
+        <f t="shared" si="7"/>
+        <v>219.91148575128551</v>
       </c>
       <c r="I18" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J18" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K18" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="L18" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333332</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>29.333333333333336</v>
       </c>
       <c r="M18" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O18=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B17,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22</v>
       </c>
       <c r="N18" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D18/360)*PI()*(C18+G18/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>111.70107212763709</v>
+        <v>251.32741228718345</v>
       </c>
       <c r="O18" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D18/360)*PI()*(C18-G18/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>167.55160819145564</v>
+        <v>188.49555921538757</v>
       </c>
       <c r="P18" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.4222222222222223</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="Q18" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.1333333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="R18" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>6.826666666666667E-2</v>
+        <v>0.10909090909090907</v>
       </c>
       <c r="S18" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>6.826666666666667E-2</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="T18" s="3">
-        <f>H18</f>
-        <v>-139.62634015954634</v>
+        <f t="shared" si="1"/>
+        <v>219.91148575128551</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="7"/>
-        <v>139.62634015954637</v>
+        <f t="shared" si="8"/>
+        <v>219.91148575128551</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D19">
-        <v>-200</v>
+        <v>180</v>
       </c>
       <c r="E19">
         <v>25</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G19" s="5">
         <v>40</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="6"/>
-        <v>-174.53292519943295</v>
+        <f t="shared" si="7"/>
+        <v>235.61944901923448</v>
       </c>
       <c r="I19" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J19" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K19" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666674</v>
+        <v>1.3076923076923077</v>
       </c>
       <c r="L19" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333336</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>28.923076923076923</v>
       </c>
       <c r="M19" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O19=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B18,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.117647058823529</v>
       </c>
       <c r="N19" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D19/360)*PI()*(C19+G19/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>139.62634015954637</v>
+        <v>267.03537555513242</v>
       </c>
       <c r="O19" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D19/360)*PI()*(C19-G19/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>209.43951023931953</v>
+        <v>204.20352248333654</v>
       </c>
       <c r="P19" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.7777777777777779</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.6666666666666665</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="R19" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>8.533333333333333E-2</v>
+        <v>0.11755319148936169</v>
       </c>
       <c r="S19" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>8.533333333333333E-2</v>
+        <v>0.11755319148936169</v>
       </c>
       <c r="T19" s="3">
-        <f>H19</f>
-        <v>-174.53292519943295</v>
+        <f t="shared" si="1"/>
+        <v>235.61944901923448</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="7"/>
-        <v>174.53292519943295</v>
+        <f t="shared" si="8"/>
+        <v>235.61944901923448</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D20">
-        <v>-240</v>
+        <v>180</v>
       </c>
       <c r="E20">
         <v>25</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G20" s="5">
         <v>40</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="6"/>
-        <v>-209.43951023931953</v>
+        <f t="shared" si="7"/>
+        <v>251.32741228718345</v>
       </c>
       <c r="I20" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J20" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K20" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="L20" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333332</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>28.571428571428573</v>
       </c>
       <c r="M20" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O20=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B19,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.222222222222221</v>
       </c>
       <c r="N20" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D20/360)*PI()*(C20+G20/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>167.55160819145561</v>
+        <v>282.74333882308139</v>
       </c>
       <c r="O20" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D20/360)*PI()*(C20-G20/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>251.32741228718342</v>
+        <v>219.91148575128551</v>
       </c>
       <c r="P20" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.1333333333333329</v>
+        <v>3.6</v>
       </c>
       <c r="Q20" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>3.1999999999999993</v>
+        <v>2.8</v>
       </c>
       <c r="R20" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.10239999999999998</v>
+        <v>0.126</v>
       </c>
       <c r="S20" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.10239999999999998</v>
+        <v>0.126</v>
       </c>
       <c r="T20" s="3">
-        <f>H20</f>
-        <v>-209.43951023931953</v>
+        <f t="shared" si="1"/>
+        <v>251.32741228718345</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="7"/>
-        <v>209.43951023931953</v>
+        <f t="shared" si="8"/>
+        <v>251.32741228718345</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="D21">
-        <v>-280</v>
+        <v>180</v>
       </c>
       <c r="E21">
         <v>25</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G21" s="5">
         <v>40</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="6"/>
-        <v>-244.34609527920611</v>
+        <f t="shared" si="7"/>
+        <v>267.03537555513242</v>
       </c>
       <c r="I21" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J21" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K21" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.2666666666666668</v>
       </c>
       <c r="L21" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333332</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>28.266666666666669</v>
       </c>
       <c r="M21" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O21=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B20,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.315789473684209</v>
       </c>
       <c r="N21" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D21/360)*PI()*(C21+G21/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>195.47687622336491</v>
+        <v>298.45130209103036</v>
       </c>
       <c r="O21" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D21/360)*PI()*(C21-G21/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>293.21531433504737</v>
+        <v>235.61944901923448</v>
       </c>
       <c r="P21" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.4888888888888889</v>
+        <v>3.8</v>
       </c>
       <c r="Q21" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>3.7333333333333334</v>
+        <v>3</v>
       </c>
       <c r="R21" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.11946666666666668</v>
+        <v>0.13443396226415091</v>
       </c>
       <c r="S21" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.11946666666666667</v>
+        <v>0.13443396226415094</v>
       </c>
       <c r="T21" s="3">
-        <f>H21</f>
-        <v>-244.34609527920611</v>
+        <f t="shared" si="1"/>
+        <v>267.03537555513242</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="7"/>
-        <v>244.34609527920614</v>
+        <f t="shared" si="8"/>
+        <v>267.03537555513242</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D22">
-        <v>-320</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <v>25</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G22" s="5">
         <v>40</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="6"/>
-        <v>-279.25268031909269</v>
+        <f t="shared" si="7"/>
+        <v>282.74333882308139</v>
       </c>
       <c r="I22" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J22" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K22" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.25</v>
       </c>
       <c r="L22" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333332</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>28</v>
       </c>
       <c r="M22" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O22=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B21,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.4</v>
       </c>
       <c r="N22" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D22/360)*PI()*(C22+G22/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>223.40214425527418</v>
+        <v>314.15926535897933</v>
       </c>
       <c r="O22" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D22/360)*PI()*(C22-G22/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>335.10321638291128</v>
+        <v>251.32741228718345</v>
       </c>
       <c r="P22" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.8444444444444446</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>4.2666666666666666</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="R22" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.13653333333333334</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S22" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.13653333333333334</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="T22" s="3">
-        <f>H22</f>
-        <v>-279.25268031909269</v>
+        <f t="shared" si="1"/>
+        <v>282.74333882308139</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="7"/>
-        <v>279.25268031909275</v>
+        <f t="shared" si="8"/>
+        <v>282.74333882308139</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D23">
-        <v>-360</v>
+        <v>180</v>
       </c>
       <c r="E23">
         <v>25</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G23" s="5">
         <v>40</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="6"/>
-        <v>-314.15926535897933</v>
+        <f t="shared" si="7"/>
+        <v>298.45130209103036</v>
       </c>
       <c r="I23" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J23" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K23" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666674</v>
+        <v>1.2352941176470589</v>
       </c>
       <c r="L23" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333336</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>27.764705882352942</v>
       </c>
       <c r="M23" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O23=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B22,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.476190476190474</v>
       </c>
       <c r="N23" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D23/360)*PI()*(C23+G23/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>251.32741228718345</v>
+        <v>329.86722862692829</v>
       </c>
       <c r="O23" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D23/360)*PI()*(C23-G23/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>376.99111843077515</v>
+        <v>267.03537555513242</v>
       </c>
       <c r="P23" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>3.1999999999999997</v>
+        <v>4.2</v>
       </c>
       <c r="Q23" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="R23" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>0.15359999999999996</v>
+        <v>0.15127118644067797</v>
       </c>
       <c r="S23" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>0.15359999999999999</v>
+        <v>0.15127118644067797</v>
       </c>
       <c r="T23" s="3">
-        <f>H23</f>
-        <v>-314.15926535897933</v>
+        <f t="shared" si="1"/>
+        <v>298.45130209103036</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="7"/>
-        <v>314.15926535897927</v>
+        <f t="shared" si="8"/>
+        <v>298.45130209103036</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D24">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="E24">
         <v>25</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G24" s="5">
         <v>40</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="6"/>
-        <v>-157.07963267948966</v>
+        <f t="shared" si="7"/>
+        <v>314.15926535897933</v>
       </c>
       <c r="I24" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J24" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K24" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>0.66666666666666674</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="L24" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>20.833333333333336</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>27.555555555555557</v>
       </c>
       <c r="M24" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>31.25</v>
+        <f>IF(O24=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B23,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.545454545454543</v>
       </c>
       <c r="N24" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D24/360)*PI()*(C24+G24/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>125.66370614359172</v>
+        <v>345.57519189487726</v>
       </c>
       <c r="O24" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D24/360)*PI()*(C24-G24/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>188.49555921538757</v>
+        <v>282.74333882308139</v>
       </c>
       <c r="P24" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.5999999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Q24" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="R24" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>7.6799999999999979E-2</v>
+        <v>0.1596774193548387</v>
       </c>
       <c r="S24" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>7.6799999999999993E-2</v>
+        <v>0.15967741935483873</v>
       </c>
       <c r="T24" s="3">
-        <f>H24</f>
-        <v>-157.07963267948966</v>
+        <f t="shared" si="1"/>
+        <v>314.15926535897933</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="7"/>
-        <v>157.07963267948963</v>
+        <f t="shared" si="8"/>
+        <v>314.15926535897933</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="D25">
         <v>180</v>
@@ -2888,75 +2979,75 @@
         <v>25</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G25" s="5">
         <v>40</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="6"/>
-        <v>157.07963267948966</v>
+        <f t="shared" si="7"/>
+        <v>329.86722862692829</v>
       </c>
       <c r="I25" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J25" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K25" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.4999999999999998</v>
+        <v>1.2105263157894737</v>
       </c>
       <c r="L25" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.249999999999996</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>27.368421052631579</v>
       </c>
       <c r="M25" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333336</v>
+        <f>IF(O25=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B24,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.608695652173914</v>
       </c>
       <c r="N25" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D25/360)*PI()*(C25+G25/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>188.49555921538757</v>
+        <v>361.28315516282623</v>
       </c>
       <c r="O25" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D25/360)*PI()*(C25-G25/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>125.66370614359172</v>
+        <v>298.45130209103036</v>
       </c>
       <c r="P25" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.4</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="Q25" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.5999999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="R25" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>7.6800000000000007E-2</v>
+        <v>0.1680769230769231</v>
       </c>
       <c r="S25" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>7.6799999999999979E-2</v>
+        <v>0.16807692307692307</v>
       </c>
       <c r="T25" s="3">
-        <f>H25</f>
-        <v>157.07963267948966</v>
+        <f t="shared" si="1"/>
+        <v>329.86722862692829</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="7"/>
-        <v>157.07963267948963</v>
+        <f t="shared" si="8"/>
+        <v>329.86722862692829</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="D26">
         <v>180</v>
@@ -2965,75 +3056,75 @@
         <v>25</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.539816339744831</v>
       </c>
       <c r="G26" s="5">
         <v>40</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="6"/>
-        <v>157.07963267948966</v>
+        <f t="shared" si="7"/>
+        <v>345.57519189487726</v>
       </c>
       <c r="I26" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J26" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>11.780972450961723</v>
+        <v>7.5398223686155035</v>
       </c>
       <c r="K26" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.4999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="L26" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>31.249999999999996</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>27.2</v>
       </c>
       <c r="M26" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>20.833333333333336</v>
+        <f>IF(O26=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B25,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.666666666666668</v>
       </c>
       <c r="N26" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D26/360)*PI()*(C26+G26/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>188.49555921538757</v>
+        <v>376.99111843077515</v>
       </c>
       <c r="O26" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D26/360)*PI()*(C26-G26/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>125.66370614359172</v>
+        <v>314.15926535897933</v>
       </c>
       <c r="P26" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="Q26" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.5999999999999999</v>
+        <v>4</v>
       </c>
       <c r="R26" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>7.6800000000000007E-2</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="S26" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>7.6799999999999979E-2</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="T26" s="3">
-        <f>H26</f>
-        <v>157.07963267948966</v>
+        <f t="shared" si="1"/>
+        <v>345.57519189487726</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="7"/>
-        <v>157.07963267948963</v>
+        <f t="shared" si="8"/>
+        <v>345.57519189487721</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="D27">
         <v>180</v>
@@ -3042,66 +3133,66 @@
         <v>22.5</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70.685834705770347</v>
       </c>
       <c r="G27" s="5">
         <v>33.4</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="6"/>
-        <v>157.07963267948966</v>
+        <f t="shared" si="7"/>
+        <v>361.28315516282623</v>
       </c>
       <c r="I27" s="5">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J27" s="5">
         <f>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</f>
-        <v>10.602875205865551</v>
+        <v>6.7858401317539538</v>
       </c>
       <c r="K27" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</f>
-        <v>1.4009603841536615</v>
+        <v>1.1565869667135489</v>
       </c>
       <c r="L27" s="5">
-        <f>(Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]])/2</f>
-        <v>30.012004801920771</v>
+        <f>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</f>
+        <v>26.505391467416782</v>
       </c>
       <c r="M27" s="5">
-        <f>Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]</f>
-        <v>21.422450728363327</v>
+        <f>IF(O27=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B26,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</f>
+        <v>22.916903121199837</v>
       </c>
       <c r="N27" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D27/360)*PI()*(C27+G27/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>183.31193133696442</v>
+        <v>387.51545382030099</v>
       </c>
       <c r="O27" s="5">
         <f>(Tabel1[[#This Row],[Richting]]*D27/360)*PI()*(C27-G27/2*Tabel1[[#This Row],[Richting]])</f>
-        <v>130.84733402201488</v>
+        <v>335.05085650535148</v>
       </c>
       <c r="P27" s="5">
         <f>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>2.5933333333333333</v>
+        <v>5.4822222222222221</v>
       </c>
       <c r="Q27" s="5">
         <f>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</f>
-        <v>1.8511111111111109</v>
+        <v>4.74</v>
       </c>
       <c r="R27" s="5">
         <f>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</f>
-        <v>8.6409866666666654E-2</v>
+        <v>0.2068342295174756</v>
       </c>
       <c r="S27" s="5">
         <f>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</f>
-        <v>8.6409866666666654E-2</v>
+        <v>0.2068342295174756</v>
       </c>
       <c r="T27" s="3">
-        <f>H27</f>
-        <v>157.07963267948966</v>
+        <f t="shared" si="1"/>
+        <v>361.28315516282623</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="7"/>
-        <v>157.07963267948963</v>
+        <f t="shared" si="8"/>
+        <v>361.28315516282623</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
@@ -3120,31 +3211,39 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>33/22</f>
+        <v>1.5</v>
+      </c>
       <c r="F30">
         <f>1300/693</f>
         <v>1.875901875901876</v>
       </c>
       <c r="H30">
         <f>L5/M5</f>
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="P30" t="s">
+        <v>109</v>
+      </c>
+      <c r="R30" t="s">
         <v>110</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>111</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>112</v>
-      </c>
-      <c r="T30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="D31">
+        <f>140/122</f>
+        <v>1.1475409836065573</v>
+      </c>
       <c r="M31">
         <f>PI()*100</f>
         <v>314.15926535897933</v>
@@ -3170,7 +3269,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H32">
         <v>693</v>
@@ -3188,7 +3287,7 @@
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -3196,7 +3295,7 @@
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34">
         <f>H32/H33/PI()</f>
@@ -3205,16 +3304,16 @@
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
         <v>97</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>98</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>99</v>
-      </c>
-      <c r="H39" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -3243,19 +3342,19 @@
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
         <v>101</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>102</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>103</v>
-      </c>
-      <c r="H43" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
@@ -3324,10 +3423,16 @@
     </row>
     <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" t="s">
         <v>106</v>
       </c>
-      <c r="G50" t="s">
-        <v>107</v>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f>140/122</f>
+        <v>1.1475409836065573</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -4230,10 +4335,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I11"/>
+  <dimension ref="C2:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,7 +4346,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>91</v>
       </c>
@@ -4254,11 +4359,16 @@
       <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2000</v>
       </c>
@@ -4273,7 +4383,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2500</v>
       </c>
@@ -4287,8 +4397,26 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3000</v>
       </c>
@@ -4302,8 +4430,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>500/2</f>
+        <v>250</v>
+      </c>
+      <c r="J5">
+        <f>600/2</f>
+        <v>300</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+      <c r="M5">
+        <v>150</v>
+      </c>
+      <c r="N5">
+        <f>(I5-J5)*(M5-L5)/(K5-J5)+L5</f>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3500</v>
       </c>
@@ -4317,8 +4466,48 @@
         <f t="shared" si="0"/>
         <v>-500</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>33</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>140</v>
+      </c>
+      <c r="N6">
+        <f>(I6-J6)*(M6-L6)/(K6-J6)+L6</f>
+        <v>104.54545454545455</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-33</v>
+      </c>
+      <c r="L7">
+        <v>-50</v>
+      </c>
+      <c r="M7">
+        <v>-140</v>
+      </c>
+      <c r="N7">
+        <f>(I7-J7)*(M7-L7)/(K7-J7)+L7</f>
+        <v>-52.727272727272727</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>4000</v>
       </c>
@@ -4332,8 +4521,27 @@
         <f>D8/ABS(D8)*(E8-C8)</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>-60</v>
+      </c>
+      <c r="J8">
+        <v>-255</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>-140</v>
+      </c>
+      <c r="M8">
+        <v>-50</v>
+      </c>
+      <c r="N8">
+        <f>(I8-J8)*(M8-L8)/(K8-J8)+L8</f>
+        <v>-71.17647058823529</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3500</v>
       </c>
@@ -4347,8 +4555,35 @@
         <f t="shared" ref="F9:F11" si="1">D9/ABS(D9)*(E9-C9)</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>219/160</f>
+        <v>1.3687499999999999</v>
+      </c>
+      <c r="I9">
+        <v>-30</v>
+      </c>
+      <c r="J9">
+        <v>-255</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-140</v>
+      </c>
+      <c r="M9">
+        <v>-50</v>
+      </c>
+      <c r="N9">
+        <f>(I9-J9)*(M9-L9)/(K9-J9)+L9</f>
+        <v>-60.588235294117652</v>
+      </c>
+      <c r="O9">
+        <f>N8/N9</f>
+        <v>1.174757281553398</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3000</v>
       </c>
@@ -4363,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2500</v>
       </c>
@@ -4376,6 +4611,119 @@
       <c r="F11">
         <f t="shared" si="1"/>
         <v>-500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <f>2000/-1500</f>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="N4">
+        <f>B4-C4</f>
+        <v>24.333333333333332</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>137</v>
+      </c>
+      <c r="R5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S5" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>R6/S6/T6*60000</f>
+        <v>60</v>
+      </c>
+      <c r="R6">
+        <v>600</v>
+      </c>
+      <c r="S6">
+        <v>600</v>
+      </c>
+      <c r="T6">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Formulas-Rotations.xlsx
+++ b/Formulas-Rotations.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Formules" sheetId="2" r:id="rId1"/>
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="IMU CALC" sheetId="3" r:id="rId3"/>
     <sheet name="Blad2" sheetId="4" r:id="rId4"/>
     <sheet name="PID Controller" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="159">
   <si>
     <t>wielafstand cm</t>
   </si>
@@ -661,6 +661,60 @@
   </si>
   <si>
     <t>lastRPMtime</t>
+  </si>
+  <si>
+    <t>leftw</t>
+  </si>
+  <si>
+    <t>rightw</t>
+  </si>
+  <si>
+    <t>leftrpm</t>
+  </si>
+  <si>
+    <t>rightrpm</t>
+  </si>
+  <si>
+    <t>rldiff</t>
+  </si>
+  <si>
+    <t>leftrpmset</t>
+  </si>
+  <si>
+    <t>rightrpmset</t>
+  </si>
+  <si>
+    <t>IMUCLASS::distance180(x,w)</t>
+  </si>
+  <si>
+    <t>x (actual yawDeg)</t>
+  </si>
+  <si>
+    <t>w (target heading)</t>
+  </si>
+  <si>
+    <t>d output scale180</t>
+  </si>
+  <si>
+    <t>d input scale180(w-x)</t>
+  </si>
+  <si>
+    <t>if d &lt; -180</t>
+  </si>
+  <si>
+    <t>if d&gt; 180</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>sum error</t>
   </si>
 </sst>
 </file>
@@ -847,6 +901,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,7 +911,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Invoer" xfId="2" builtinId="20"/>
@@ -940,34 +994,34 @@
     <tableColumn id="6" name="Wielbasis"/>
     <tableColumn id="7" name="af te leggen afstand"/>
     <tableColumn id="8" name="snelheid (rpm) V"/>
-    <tableColumn id="20" name="snelheid (KM/H)" dataDxfId="16" totalsRowDxfId="6">
+    <tableColumn id="20" name="snelheid (KM/H)" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[WielOmtrek]]*60/10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="verhouding" dataDxfId="9">
+    <tableColumn id="9" name="verhouding" dataDxfId="14">
       <calculatedColumnFormula>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[Dr]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Vl" dataDxfId="8">
+    <tableColumn id="12" name="Vl" dataDxfId="13">
       <calculatedColumnFormula>IF(Tabel1[[#This Row],[Dl]]=0,0,IF(Tabel1[[#This Row],[Dr]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[Richting]],Tabel1[[#This Row],[snelheid (rpm) V]]*Tabel1[[#This Row],[verhouding]]+Tabel1[[#This Row],[snelheid (rpm) V]]/2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Vr" dataDxfId="7">
+    <tableColumn id="13" name="Vr" dataDxfId="12">
       <calculatedColumnFormula>IF(O5=0,0,IF(Tabel1[[#This Row],[Dl]]=0,Tabel1[[#This Row],[snelheid (rpm) V]]*B4,Tabel1[[#This Row],[Vl]]/Tabel1[[#This Row],[verhouding]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Dl" dataDxfId="15" totalsRowDxfId="5">
+    <tableColumn id="15" name="Dl" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5+G5/2*Tabel1[[#This Row],[Richting]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Dr" dataDxfId="14" totalsRowDxfId="4">
+    <tableColumn id="16" name="Dr" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>(Tabel1[[#This Row],[Richting]]*D5/360)*PI()*(C5-G5/2*Tabel1[[#This Row],[Richting]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="omwL" dataDxfId="13" totalsRowDxfId="3">
+    <tableColumn id="21" name="omwL" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>Tabel1[[#This Row],[Dl]]/Tabel1[[#This Row],[WielOmtrek]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="omwR" dataDxfId="12" totalsRowDxfId="2">
+    <tableColumn id="22" name="omwR" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabel1[[#This Row],[Dr]]/Tabel1[[#This Row],[WielOmtrek]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="tijd links" dataDxfId="11" totalsRowDxfId="1">
+    <tableColumn id="14" name="tijd links" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Tabel1[[#This Row],[omwL]]/Tabel1[[#This Row],[Vl]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="tijd rechts" dataDxfId="10" totalsRowDxfId="0">
+    <tableColumn id="17" name="tijd rechts" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabel1[[#This Row],[omwR]]/Tabel1[[#This Row],[Vr]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" name="Dc">
@@ -1291,21 +1345,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="L2" s="11" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="L2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
@@ -3907,32 +3961,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -4297,36 +4352,335 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>-180</v>
-      </c>
-      <c r="D15">
-        <v>135</v>
-      </c>
       <c r="E15">
-        <f t="shared" si="5"/>
-        <v>-45</v>
+        <v>-260</v>
       </c>
       <c r="F15">
         <f t="shared" si="6"/>
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <f t="shared" si="7"/>
-        <v>-405</v>
+        <v>-620</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>-45</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <f>C19-B19</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>D19+2*180</f>
+        <v>360</v>
+      </c>
+      <c r="G19">
+        <f>E19-2*180</f>
+        <v>-360</v>
+      </c>
+      <c r="H19">
+        <f>IF(E19&lt;-180,F19,IF(E19&gt;180,G19,E19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D28" si="8">C20-B20</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F28" si="9">D20+2*180</f>
+        <v>360</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G28" si="10">E20-2*180</f>
+        <v>-360</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H28" si="11">IF(E20&lt;-180,F20,IF(E20&gt;180,G20,E20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>350</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="8"/>
+        <v>-260</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="10"/>
+        <v>-260</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="10"/>
+        <v>-360</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>-360</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="10"/>
+        <v>-360</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="10"/>
+        <v>-360</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="10"/>
+        <v>-360</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>90</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>-360</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="10"/>
+        <v>-360</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4359,14 +4713,14 @@
       <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="3:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -4397,22 +4751,22 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4624,32 +4978,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T6"/>
+  <dimension ref="B2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
       </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
       <c r="E2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
         <v>127</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -4657,73 +5022,570 @@
         <v>125</v>
       </c>
       <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>128</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>129</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>130</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>131</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>132</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>133</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>23</v>
       </c>
       <c r="C4">
-        <f>2000/-1500</f>
-        <v>-1.3333333333333333</v>
-      </c>
-      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <f>B4-C4</f>
-        <v>24.333333333333332</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>D4</f>
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <f>L4*D4</f>
+        <v>11.5</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <f>B4-C4</f>
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q5" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="0">B5-C5</f>
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>D5+F4</f>
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G9" si="1">L5*D5</f>
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="s">
         <v>137</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>138</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>139</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q6">
-        <f>R6/S6/T6*60000</f>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="2">D6+F5</f>
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="S6">
+        <f>T6/U6/V6*60000</f>
         <v>60</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>600</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>600</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="L8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>142</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>21</v>
+      </c>
+      <c r="O14">
+        <v>21</v>
+      </c>
+      <c r="P14">
+        <f>N14-T14/2</f>
+        <v>22</v>
+      </c>
+      <c r="Q14">
+        <f>O14-T14/2</f>
+        <v>22</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>22</v>
+      </c>
+      <c r="T14">
+        <f>R14-S14</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>21</v>
+      </c>
+      <c r="O15">
+        <v>21</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:P25" si="3">N15-T15/2</f>
+        <v>21</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ref="Q15:Q25" si="4">O15-T15/2</f>
+        <v>21</v>
+      </c>
+      <c r="R15">
+        <v>23</v>
+      </c>
+      <c r="S15">
+        <v>23</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T25" si="5">R15-S15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>21</v>
+      </c>
+      <c r="O16">
+        <v>21</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="R16">
+        <v>24</v>
+      </c>
+      <c r="S16">
+        <v>24</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>21</v>
+      </c>
+      <c r="O17">
+        <v>21</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17">
+        <v>25</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>30</v>
+      </c>
+      <c r="O18">
+        <v>21</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>25</v>
+      </c>
+      <c r="S18">
+        <v>15</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>21</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19">
+        <v>22</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>21</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20">
+        <v>22</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>0.002*255</f>
+        <v>0.51</v>
+      </c>
+      <c r="G21">
+        <f>20+0.002*50</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N21">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>21</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="R21">
+        <v>18</v>
+      </c>
+      <c r="S21">
+        <v>22</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f>100*0.01</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <v>22</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>0.05*100</f>
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>22</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>21</v>
+      </c>
+      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R24">
+        <v>20</v>
+      </c>
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>21</v>
+      </c>
+      <c r="O25">
+        <v>21</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="R25">
+        <v>20</v>
+      </c>
+      <c r="S25">
+        <v>22</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="5"/>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
